--- a/input-data/publications-summary.xlsx
+++ b/input-data/publications-summary.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="200" windowWidth="27460" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014'!$A$3:$J$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014'!$A$1:$J$53</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="167">
   <si>
     <t>URL</t>
   </si>
@@ -460,9 +460,6 @@
     <t>US$31.50; Policy note: Online access for 24 hours; see: http://www.nmd-journal.com/article/S0960-8966(13)00997-8/pdf</t>
   </si>
   <si>
-    <t>Source: PubMed; accessed 12 Jan 2015</t>
-  </si>
-  <si>
     <t>Cost (if applicable)</t>
   </si>
   <si>
@@ -530,16 +527,13 @@
   </si>
   <si>
     <t>PubMed says it's not available as free full text, but it's accessible through link in column I</t>
-  </si>
-  <si>
-    <t>PUBMED PUBLICATIONS ON FABRY DISEASE (2014)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,14 +562,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Trebuchet MS"/>
@@ -618,16 +604,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -636,7 +621,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -915,7 +900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -923,73 +908,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="3" customWidth="1"/>
-    <col min="8" max="8" width="54.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="54.5" style="9" customWidth="1"/>
     <col min="9" max="9" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44.6640625" style="3" customWidth="1"/>
     <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>168</v>
+      <c r="A1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="65">
+      <c r="A2" s="1">
+        <v>25385939</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="A3" s="1">
+        <v>25345090</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="65">
       <c r="A4" s="1">
-        <v>25385939</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>5</v>
+        <v>25332282</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
@@ -1001,9 +1045,9 @@
         <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1013,15 +1057,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="26">
       <c r="A5" s="1">
-        <v>25345090</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
+        <v>25327101</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>34</v>
@@ -1035,28 +1079,28 @@
       <c r="G5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="65">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="39">
       <c r="A6" s="1">
-        <v>25332282</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
+        <v>25101867</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
@@ -1065,9 +1109,9 @@
         <v>33</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1077,47 +1121,47 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="26">
+    <row r="7" spans="1:10" ht="27">
       <c r="A7" s="1">
-        <v>25327101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>8</v>
+        <v>25073565</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>113</v>
+      <c r="H7" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="39">
       <c r="A8" s="1">
-        <v>25101867</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>9</v>
+        <v>25031264</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>34</v>
@@ -1129,9 +1173,9 @@
         <v>33</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1141,15 +1185,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="27">
+    <row r="9" spans="1:10" ht="26">
       <c r="A9" s="1">
-        <v>25073565</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
+        <v>24886109</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>34</v>
@@ -1163,57 +1207,57 @@
       <c r="G9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>115</v>
+      <c r="I9" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="39">
+    <row r="10" spans="1:10" ht="52">
       <c r="A10" s="1">
-        <v>25031264</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>11</v>
+        <v>24823749</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>113</v>
+        <v>113</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="26">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="39">
       <c r="A11" s="1">
-        <v>24886109</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>12</v>
+        <v>24778057</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
@@ -1222,65 +1266,65 @@
         <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>148</v>
+      <c r="H11" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="52">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="39">
       <c r="A12" s="1">
-        <v>24823749</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>13</v>
+        <v>24742848</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>149</v>
+        <v>164</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="39">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="26">
       <c r="A13" s="1">
-        <v>24778057</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
+        <v>24738180</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>34</v>
@@ -1291,60 +1335,60 @@
       <c r="G13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="39">
       <c r="A14" s="1">
-        <v>24742848</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
+        <v>24724369</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="26">
+    </row>
+    <row r="15" spans="1:10" ht="39">
       <c r="A15" s="1">
-        <v>24738180</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>16</v>
+        <v>24679964</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>34</v>
@@ -1355,57 +1399,57 @@
       <c r="G15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="39">
       <c r="A16" s="1">
-        <v>24724369</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
+        <v>24656905</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="39">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="26">
       <c r="A17" s="1">
-        <v>24679964</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>18</v>
+        <v>24640811</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>34</v>
@@ -1419,28 +1463,28 @@
       <c r="G17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="39">
       <c r="A18" s="1">
-        <v>24656905</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>19</v>
+        <v>24632283</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>34</v>
@@ -1449,9 +1493,9 @@
         <v>33</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1461,15 +1505,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="26">
+    <row r="19" spans="1:10" ht="27">
       <c r="A19" s="1">
-        <v>24640811</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>20</v>
+        <v>24626659</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>34</v>
@@ -1478,33 +1522,33 @@
         <v>34</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>113</v>
+      <c r="H19" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="39">
       <c r="A20" s="1">
-        <v>24632283</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>21</v>
+        <v>24613481</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>34</v>
@@ -1513,9 +1557,9 @@
         <v>33</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1525,15 +1569,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="27">
+    <row r="21" spans="1:10" ht="39">
       <c r="A21" s="1">
-        <v>24626659</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>22</v>
+        <v>24582695</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>34</v>
@@ -1542,126 +1586,126 @@
         <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="65">
+      <c r="A22" s="1">
+        <v>24556355</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="65">
+      <c r="A23" s="1">
+        <v>24556354</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14">
+      <c r="A24" s="1">
+        <v>24550428</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="39">
-      <c r="A22" s="1">
-        <v>24613481</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="39">
-      <c r="A23" s="1">
-        <v>24582695</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="65">
-      <c r="A24" s="1">
-        <v>24556355</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="65">
+    <row r="25" spans="1:10" ht="39">
       <c r="A25" s="1">
-        <v>24556354</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>26</v>
+        <v>24534763</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>34</v>
@@ -1673,9 +1717,9 @@
         <v>33</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1685,18 +1729,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14">
+    <row r="26" spans="1:10" ht="40">
       <c r="A26" s="1">
-        <v>24550428</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>27</v>
+        <v>24529306</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>34</v>
@@ -1707,10 +1751,10 @@
       <c r="G26" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="7" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -1719,13 +1763,13 @@
     </row>
     <row r="27" spans="1:10" ht="39">
       <c r="A27" s="1">
-        <v>24534763</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>28</v>
+        <v>24513544</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>34</v>
@@ -1737,9 +1781,9 @@
         <v>33</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1749,15 +1793,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="40">
+    <row r="28" spans="1:10" ht="27">
       <c r="A28" s="1">
-        <v>24529306</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>29</v>
+        <v>24496231</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>34</v>
@@ -1771,25 +1815,25 @@
       <c r="G28" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="7" t="s">
         <v>115</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="39">
+    <row r="29" spans="1:10" ht="27">
       <c r="A29" s="1">
-        <v>24513544</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>30</v>
+        <v>24475221</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>34</v>
@@ -1798,16 +1842,16 @@
         <v>34</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>113</v>
+        <v>113</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>113</v>
@@ -1815,13 +1859,13 @@
     </row>
     <row r="30" spans="1:10" ht="27">
       <c r="A30" s="1">
-        <v>24496231</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>31</v>
+        <v>24398019</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>34</v>
@@ -1835,10 +1879,10 @@
       <c r="G30" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I30" s="8" t="s">
+      <c r="H30" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>115</v>
       </c>
       <c r="J30" s="3" t="s">
@@ -1847,13 +1891,13 @@
     </row>
     <row r="31" spans="1:10" ht="27">
       <c r="A31" s="1">
-        <v>24475221</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>50</v>
+        <v>24395922</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>34</v>
@@ -1862,30 +1906,30 @@
         <v>34</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I31" s="8" t="s">
+      <c r="H31" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>115</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="27">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="39">
       <c r="A32" s="1">
-        <v>24398019</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>54</v>
+        <v>24380807</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>34</v>
@@ -1894,144 +1938,144 @@
         <v>34</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="I32" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="26">
+      <c r="A33" s="1">
+        <v>24365053</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="26">
+      <c r="A34" s="1">
+        <v>24361605</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="39">
+      <c r="A35" s="1">
+        <v>24341606</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="27">
+      <c r="A36" s="1">
+        <v>24335674</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="27">
-      <c r="A33" s="1">
-        <v>24395922</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="39">
-      <c r="A34" s="1">
-        <v>24380807</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="26">
-      <c r="A35" s="1">
-        <v>24365053</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="26">
-      <c r="A36" s="1">
-        <v>24361605</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>113</v>
@@ -2039,63 +2083,63 @@
     </row>
     <row r="37" spans="1:10" ht="39">
       <c r="A37" s="1">
-        <v>24341606</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>59</v>
+        <v>24334116</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H37" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="27">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="39">
       <c r="A38" s="1">
-        <v>24335674</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>60</v>
+        <v>24334114</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>113</v>
@@ -2103,16 +2147,16 @@
     </row>
     <row r="39" spans="1:10" ht="39">
       <c r="A39" s="1">
-        <v>24334116</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>61</v>
+        <v>24331397</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>34</v>
@@ -2121,9 +2165,9 @@
         <v>33</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H39" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -2135,13 +2179,13 @@
     </row>
     <row r="40" spans="1:10" ht="39">
       <c r="A40" s="1">
-        <v>24334114</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>62</v>
+        <v>24239767</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>34</v>
@@ -2153,9 +2197,9 @@
         <v>33</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -2165,47 +2209,47 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="39">
+    <row r="41" spans="1:10" ht="52">
       <c r="A41" s="1">
-        <v>24331397</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>63</v>
+        <v>24232002</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="39">
       <c r="A42" s="1">
-        <v>24239767</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>64</v>
+        <v>24215843</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>34</v>
@@ -2217,9 +2261,9 @@
         <v>33</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -2229,47 +2273,47 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="52">
+    <row r="43" spans="1:10" ht="26">
       <c r="A43" s="1">
-        <v>24232002</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>70</v>
+        <v>24196119</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="39">
       <c r="A44" s="1">
-        <v>24215843</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>71</v>
+        <v>24189976</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>34</v>
@@ -2281,9 +2325,9 @@
         <v>33</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H44" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -2293,47 +2337,47 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="26">
+    <row r="45" spans="1:10" ht="27">
       <c r="A45" s="1">
-        <v>24196119</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>78</v>
+        <v>24158513</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>113</v>
+      <c r="H45" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="39">
       <c r="A46" s="1">
-        <v>24189976</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>79</v>
+        <v>24140492</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>34</v>
@@ -2345,9 +2389,9 @@
         <v>33</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -2357,15 +2401,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="27">
+    <row r="47" spans="1:10" ht="39">
       <c r="A47" s="1">
-        <v>24158513</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>80</v>
+        <v>24129560</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>34</v>
@@ -2374,161 +2418,161 @@
         <v>34</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H47" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="52">
+      <c r="A48" s="1">
+        <v>24104692</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="52">
+      <c r="A49" s="1">
+        <v>24078459</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="39">
+      <c r="A50" s="1">
+        <v>23974650</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="40">
+      <c r="A51" s="1">
+        <v>23922385</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I51" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="39">
-      <c r="A48" s="1">
-        <v>24140492</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="39">
-      <c r="A49" s="1">
-        <v>24129560</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="52">
-      <c r="A50" s="1">
-        <v>24104692</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="52">
-      <c r="A51" s="1">
-        <v>24078459</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="J51" s="3" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="39">
       <c r="A52" s="1">
-        <v>23974650</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>90</v>
+        <v>23828401</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>34</v>
@@ -2537,9 +2581,9 @@
         <v>33</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H52" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -2549,15 +2593,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="40">
+    <row r="53" spans="1:10" ht="39">
       <c r="A53" s="1">
-        <v>23922385</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>91</v>
+        <v>23615762</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>34</v>
@@ -2569,168 +2613,99 @@
         <v>33</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>115</v>
+        <v>136</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="39">
-      <c r="A54" s="1">
-        <v>23828401</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="39">
-      <c r="A55" s="1">
-        <v>23615762</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J55"/>
+  <autoFilter ref="A1:J53"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="B11" r:id="rId6"/>
-    <hyperlink ref="B13" r:id="rId7"/>
-    <hyperlink ref="B14" r:id="rId8"/>
-    <hyperlink ref="B15" r:id="rId9"/>
-    <hyperlink ref="B16" r:id="rId10"/>
-    <hyperlink ref="B17" r:id="rId11"/>
-    <hyperlink ref="B18" r:id="rId12"/>
-    <hyperlink ref="B19" r:id="rId13"/>
-    <hyperlink ref="B20" r:id="rId14"/>
-    <hyperlink ref="B21" r:id="rId15"/>
-    <hyperlink ref="B22" r:id="rId16"/>
-    <hyperlink ref="B23" r:id="rId17"/>
-    <hyperlink ref="B24" r:id="rId18"/>
-    <hyperlink ref="B25" r:id="rId19"/>
-    <hyperlink ref="B26" r:id="rId20"/>
-    <hyperlink ref="B27" r:id="rId21"/>
-    <hyperlink ref="B28" r:id="rId22"/>
-    <hyperlink ref="B29" r:id="rId23"/>
-    <hyperlink ref="B30" r:id="rId24"/>
-    <hyperlink ref="B31" r:id="rId25"/>
-    <hyperlink ref="B32" r:id="rId26"/>
-    <hyperlink ref="B33" r:id="rId27"/>
-    <hyperlink ref="B34" r:id="rId28"/>
-    <hyperlink ref="B35" r:id="rId29"/>
-    <hyperlink ref="B36" r:id="rId30"/>
-    <hyperlink ref="B37" r:id="rId31"/>
-    <hyperlink ref="B39" r:id="rId32"/>
-    <hyperlink ref="B40" r:id="rId33"/>
-    <hyperlink ref="B41" r:id="rId34"/>
-    <hyperlink ref="B42" r:id="rId35"/>
-    <hyperlink ref="B43" r:id="rId36"/>
-    <hyperlink ref="B44" r:id="rId37"/>
-    <hyperlink ref="B45" r:id="rId38"/>
-    <hyperlink ref="B46" r:id="rId39"/>
-    <hyperlink ref="B47" r:id="rId40"/>
-    <hyperlink ref="B48" r:id="rId41"/>
-    <hyperlink ref="B49" r:id="rId42"/>
-    <hyperlink ref="B50" r:id="rId43"/>
-    <hyperlink ref="B51" r:id="rId44"/>
-    <hyperlink ref="B53" r:id="rId45"/>
-    <hyperlink ref="B54" r:id="rId46"/>
-    <hyperlink ref="B55" r:id="rId47"/>
-    <hyperlink ref="B4" r:id="rId48"/>
-    <hyperlink ref="B5" r:id="rId49"/>
-    <hyperlink ref="I9" r:id="rId50"/>
-    <hyperlink ref="B12" r:id="rId51"/>
-    <hyperlink ref="I21" r:id="rId52"/>
-    <hyperlink ref="I26" r:id="rId53"/>
-    <hyperlink ref="I28" r:id="rId54"/>
-    <hyperlink ref="I30" r:id="rId55"/>
-    <hyperlink ref="I31" r:id="rId56"/>
-    <hyperlink ref="I32" r:id="rId57"/>
-    <hyperlink ref="B38" r:id="rId58"/>
-    <hyperlink ref="I38" r:id="rId59"/>
-    <hyperlink ref="I47" r:id="rId60"/>
-    <hyperlink ref="B52" r:id="rId61"/>
-    <hyperlink ref="I53" r:id="rId62"/>
-    <hyperlink ref="H9" r:id="rId63"/>
-    <hyperlink ref="H11" r:id="rId64"/>
-    <hyperlink ref="H12" r:id="rId65"/>
-    <hyperlink ref="H13" r:id="rId66" display="http://ar.iiarjournals.org/content/34/5/2437.full.pdf"/>
-    <hyperlink ref="H21" r:id="rId67"/>
-    <hyperlink ref="H26" r:id="rId68"/>
-    <hyperlink ref="H28" r:id="rId69"/>
-    <hyperlink ref="H30" r:id="rId70"/>
-    <hyperlink ref="H31" r:id="rId71"/>
-    <hyperlink ref="H32" r:id="rId72"/>
-    <hyperlink ref="H33" r:id="rId73"/>
-    <hyperlink ref="H36" r:id="rId74"/>
-    <hyperlink ref="H38" r:id="rId75"/>
-    <hyperlink ref="H47" r:id="rId76"/>
-    <hyperlink ref="H53" r:id="rId77"/>
-    <hyperlink ref="I33" r:id="rId78"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId18"/>
+    <hyperlink ref="B23" r:id="rId19"/>
+    <hyperlink ref="B24" r:id="rId20"/>
+    <hyperlink ref="B25" r:id="rId21"/>
+    <hyperlink ref="B26" r:id="rId22"/>
+    <hyperlink ref="B27" r:id="rId23"/>
+    <hyperlink ref="B28" r:id="rId24"/>
+    <hyperlink ref="B29" r:id="rId25"/>
+    <hyperlink ref="B30" r:id="rId26"/>
+    <hyperlink ref="B31" r:id="rId27"/>
+    <hyperlink ref="B32" r:id="rId28"/>
+    <hyperlink ref="B33" r:id="rId29"/>
+    <hyperlink ref="B34" r:id="rId30"/>
+    <hyperlink ref="B35" r:id="rId31"/>
+    <hyperlink ref="B37" r:id="rId32"/>
+    <hyperlink ref="B38" r:id="rId33"/>
+    <hyperlink ref="B39" r:id="rId34"/>
+    <hyperlink ref="B40" r:id="rId35"/>
+    <hyperlink ref="B41" r:id="rId36"/>
+    <hyperlink ref="B42" r:id="rId37"/>
+    <hyperlink ref="B43" r:id="rId38"/>
+    <hyperlink ref="B44" r:id="rId39"/>
+    <hyperlink ref="B45" r:id="rId40"/>
+    <hyperlink ref="B46" r:id="rId41"/>
+    <hyperlink ref="B47" r:id="rId42"/>
+    <hyperlink ref="B48" r:id="rId43"/>
+    <hyperlink ref="B49" r:id="rId44"/>
+    <hyperlink ref="B51" r:id="rId45"/>
+    <hyperlink ref="B52" r:id="rId46"/>
+    <hyperlink ref="B53" r:id="rId47"/>
+    <hyperlink ref="B2" r:id="rId48"/>
+    <hyperlink ref="B3" r:id="rId49"/>
+    <hyperlink ref="I7" r:id="rId50"/>
+    <hyperlink ref="B10" r:id="rId51"/>
+    <hyperlink ref="I19" r:id="rId52"/>
+    <hyperlink ref="I24" r:id="rId53"/>
+    <hyperlink ref="I26" r:id="rId54"/>
+    <hyperlink ref="I28" r:id="rId55"/>
+    <hyperlink ref="I29" r:id="rId56"/>
+    <hyperlink ref="I30" r:id="rId57"/>
+    <hyperlink ref="B36" r:id="rId58"/>
+    <hyperlink ref="I36" r:id="rId59"/>
+    <hyperlink ref="I45" r:id="rId60"/>
+    <hyperlink ref="B50" r:id="rId61"/>
+    <hyperlink ref="I51" r:id="rId62"/>
+    <hyperlink ref="H7" r:id="rId63"/>
+    <hyperlink ref="H9" r:id="rId64"/>
+    <hyperlink ref="H10" r:id="rId65"/>
+    <hyperlink ref="H11" r:id="rId66" display="http://ar.iiarjournals.org/content/34/5/2437.full.pdf"/>
+    <hyperlink ref="H19" r:id="rId67"/>
+    <hyperlink ref="H24" r:id="rId68"/>
+    <hyperlink ref="H26" r:id="rId69"/>
+    <hyperlink ref="H28" r:id="rId70"/>
+    <hyperlink ref="H29" r:id="rId71"/>
+    <hyperlink ref="H30" r:id="rId72"/>
+    <hyperlink ref="H31" r:id="rId73"/>
+    <hyperlink ref="H34" r:id="rId74"/>
+    <hyperlink ref="H36" r:id="rId75"/>
+    <hyperlink ref="H45" r:id="rId76"/>
+    <hyperlink ref="H51" r:id="rId77"/>
+    <hyperlink ref="I31" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/input-data/publications-summary.xlsx
+++ b/input-data/publications-summary.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="2720" yWindow="4620" windowWidth="25600" windowHeight="11860" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2014" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Fabry" sheetId="1" r:id="rId1"/>
+    <sheet name="Huntingdon" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014'!$A$1:$J$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fabry!$A$1:$J$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Huntingdon!$A$1:$J$212</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="627">
   <si>
     <t>URL</t>
   </si>
@@ -527,13 +528,1393 @@
   </si>
   <si>
     <t>PubMed says it's not available as free full text, but it's accessible through link in column I</t>
+  </si>
+  <si>
+    <t>A model of the basal ganglia in voluntary movement and postural reactions</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23282072</t>
+  </si>
+  <si>
+    <t>Huntington disease in 2013 - genetic choices across the life cycle</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23320517</t>
+  </si>
+  <si>
+    <t>The uptake and outcome of prenatal and pre-implantation genetic diagnosis for Huntington's disease in the Netherlands (1998-2008)</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23350580</t>
+  </si>
+  <si>
+    <t>Prenatal testing for Huntington's disease in the Netherlands from 1998 to 2008</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23350614</t>
+  </si>
+  <si>
+    <t>Neural correlates of impaired emotion processing in manifest Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23482620</t>
+  </si>
+  <si>
+    <t>Progressive presynaptic dopaminergic deterioration in Huntington disease: a [123I]-FP-CIT SPECT two-year follow-up study</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23531734</t>
+  </si>
+  <si>
+    <t>Diffusion weighted imaging of prefrontal cortex in prodromal Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23568433</t>
+  </si>
+  <si>
+    <t>Illness perceptions, coping styles and psychological distress in adults with Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23767964</t>
+  </si>
+  <si>
+    <t>Elevated arteriolar cerebral blood volume in prodromal Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23847161</t>
+  </si>
+  <si>
+    <t>Amyotrophic lateral sclerosis and Huntington's disease: neurodegenerative link or coincidence?</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23859590</t>
+  </si>
+  <si>
+    <t>Experiences of predictive testing in young people at risk of Huntington's disease, familial cardiomyopathy or hereditary breast and ovarian cancer</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23860040</t>
+  </si>
+  <si>
+    <t>Encapsulated cell therapy for neurodegenerative diseases: from promise to product</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23880505</t>
+  </si>
+  <si>
+    <t>TDP-43 pathology in polyglutamine diseases: with reference to amyotrphic lateral sclerosis</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23889603</t>
+  </si>
+  <si>
+    <t>Early down-regulation of PKCδ as a pro-survival mechanism in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23896721</t>
+  </si>
+  <si>
+    <t>Functional magnetic resonance imaging of working memory in Huntington's disease: cross-sectional data from the IMAGE-HD study</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23913754</t>
+  </si>
+  <si>
+    <t>Transplants of adult mesenchymal and neural stem cells provide neuroprotection and behavioral sparing in a transgenic rat model of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23939879</t>
+  </si>
+  <si>
+    <t>Course of irritability, depression and apathy in Huntington's disease in relation to motor symptoms during a two-year follow-up period</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23948661</t>
+  </si>
+  <si>
+    <t>Evidence for the efficacy of latrepirdine (Dimebon) treatment for improvement of cognitive function: a meta-analysis</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23948924</t>
+  </si>
+  <si>
+    <t>Altered resting-state connectivity in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/23982979</t>
+  </si>
+  <si>
+    <t>Curcumin nanoparticles attenuate neurochemical and neurobehavioral deficits in experimental model of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24008671</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3857950/</t>
+  </si>
+  <si>
+    <t>Loss of caveolin-1 expression in knock-in mouse model of Huntington's disease suppresses pathophysiology in vivo</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24021477</t>
+  </si>
+  <si>
+    <t>Nonparametric modeling and analysis of association between Huntington's disease onset and CAG repeats</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24027120</t>
+  </si>
+  <si>
+    <t>Head drops in advanced Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24064111</t>
+  </si>
+  <si>
+    <t>p53 increases caspase-6 expression and activation in muscle tissue expressing mutant huntingtin</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24070868</t>
+  </si>
+  <si>
+    <t>DJ-1 modulates aggregation and pathogenesis in models of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24070869</t>
+  </si>
+  <si>
+    <t>MeCP2: a novel Huntingtin interactor</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24105466</t>
+  </si>
+  <si>
+    <t>Association of age at onset in Huntington disease with functional promoter variations in NPY and NPY2R</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24121255</t>
+  </si>
+  <si>
+    <t>Resolving pathobiological mechanisms relating to Huntington disease: gait, balance, and involuntary movements in mice with targeted ablation of striatal D1 dopamine receptor cells</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24135007</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3905186/</t>
+  </si>
+  <si>
+    <t>The basal ganglia in perceptual timing: timing performance in Multiple System Atrophy and Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24135486</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/doi/10.1002/mds.25657/full</t>
+  </si>
+  <si>
+    <t>Tracking motor impairments in the progression of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24150908</t>
+  </si>
+  <si>
+    <t>Multisource ascertainment of Huntington disease in Canada: prevalence and population at risk</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24151181</t>
+  </si>
+  <si>
+    <t>Stereotactic planning software for human neurotransplantation: suitability in 22 surgical cases of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24164802</t>
+  </si>
+  <si>
+    <t>Surface electromyograph activity of submental muscles during swallowing and expiratory muscle training tasks in Huntington's disease patients</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24182734</t>
+  </si>
+  <si>
+    <t>What's wrong with epigenetics in Huntington's disease?</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24184315</t>
+  </si>
+  <si>
+    <t>Nucleolar dysfunction in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24184605</t>
+  </si>
+  <si>
+    <t>Quercetin improves behavioral deficiencies, restores astrocytes and microglia, and reduces serotonin metabolism in 3-nitropropionic acid-induced rat model of Huntington's Disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24188794</t>
+  </si>
+  <si>
+    <t>Expression levels of DNA replication and repair genes predict regional somatic repeat instability in the brain but are not altered by polyglutamine disease protein expression or age</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24191263</t>
+  </si>
+  <si>
+    <t>Advances in huntington disease drug discovery: novel approaches to model disease phenotypes</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24196395</t>
+  </si>
+  <si>
+    <t>Prostaglandin E2 EP1 receptor antagonist improves motor deficits and rescues memory decline in R6/1 mouse model of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24198227</t>
+  </si>
+  <si>
+    <t>An exploration of the experience of Huntington's disease in family dyads: an interpretative phenomenological analysis</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24214466</t>
+  </si>
+  <si>
+    <t>Impaired motor speech performance in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24221215</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3919562/</t>
+  </si>
+  <si>
+    <t>ESET methylates UBF at K232/254 and regulates nucleolar heterochromatin plasticity and rDNA transcription</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24234436</t>
+  </si>
+  <si>
+    <t>Current therapeutic advances in patients and experimental models of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24266585</t>
+  </si>
+  <si>
+    <t>Roles of the nucleolus in the CAG RNA-mediated toxicity</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24269666</t>
+  </si>
+  <si>
+    <t>Chronic blockade of extrasynaptic NMDA receptors ameliorates synaptic dysfunction and pro-death signaling in Huntington disease transgenic mice</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24269729</t>
+  </si>
+  <si>
+    <t>Behavioral therapy reverses circadian deficits in a transgenic mouse model of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24269914</t>
+  </si>
+  <si>
+    <t>Metabotropic glutamate receptor 5 knockout promotes motor and biochemical alterations in a mouse model of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24282028</t>
+  </si>
+  <si>
+    <t>D-polyglutamine amyloid recruits L-polyglutamine monomers and kills cells</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24291210</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0014579313008673</t>
+  </si>
+  <si>
+    <t>Dynamic recruitment of active proteasomes into polyglutamine initiated inclusion bodies</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24291262</t>
+  </si>
+  <si>
+    <t>Gene expression profile in fibroblasts of Huntington's disease patients and controls</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24296361</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3911496/</t>
+  </si>
+  <si>
+    <t>Vaccinia-related kinase 2 mediates accumulation of polyglutamine aggregates via negative regulation of the chaperonin TRiC</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24298020</t>
+  </si>
+  <si>
+    <t>A 5-year follow-up of deep brain stimulation in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24300048</t>
+  </si>
+  <si>
+    <t>Ocular motor disorders</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24300789</t>
+  </si>
+  <si>
+    <t>FTY720 (fingolimod) is a neuroprotective and disease-modifying agent in cellular and mouse models of Huntington disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24301680</t>
+  </si>
+  <si>
+    <t>Widespread microRNA dysregulation in multiple system atrophy - disease-related alteration in miR-96</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24304186</t>
+  </si>
+  <si>
+    <t>The fate of cell grafts for the treatment of Huntington's disease: the post-mortem evidence</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24304236</t>
+  </si>
+  <si>
+    <t>Neurodegenerative disease: Mapping the natural history of Huntington disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24323048</t>
+  </si>
+  <si>
+    <t>Role of chaperone-mediated autophagy in degrading Huntington's disease-associated huntingtin protein</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24323530</t>
+  </si>
+  <si>
+    <t>Rhes, a striatal-selective protein implicated in Huntington disease, binds beclin-1 and activates autophagy</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24324270</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3891360/</t>
+  </si>
+  <si>
+    <t>Circadian dysfunction in response to in vivo treatment with the mitochondrial toxin 3-nitropropionic acid</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24328694</t>
+  </si>
+  <si>
+    <t>Role of neurosteroids in experimental 3-nitropropionic acid induced neurotoxicity in rats</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24333475</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0006291X13020925</t>
+  </si>
+  <si>
+    <t>Baclofen, a GABAB receptor agonist, enhances ubiquitin-proteasome system functioning and neuronal survival in Huntington's disease model mice</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24333873</t>
+  </si>
+  <si>
+    <t>Live cell imaging and biophotonic methods reveal two types of mutant huntingtin inclusions</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24334607</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC4145428/</t>
+  </si>
+  <si>
+    <t>Fetal striatal grafting slows motor and cognitive decline of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24347577</t>
+  </si>
+  <si>
+    <t>PET imaging shows loss of striatal PDE10A in patients with Huntington disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24353339</t>
+  </si>
+  <si>
+    <t>Toll-interacting protein pathway: degradation of an ubiquitin-binding protein</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24359962</t>
+  </si>
+  <si>
+    <t>The cytokine and endocannabinoid systems are co-regulated by NF-κB p65/RelA in cell culture and transgenic mouse models of Huntington's disease and in striatal tissue from Huntington's disease patients</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24360910</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3929197/</t>
+  </si>
+  <si>
+    <t>C9orf72 expansions are the most common genetic cause of Huntington disease phenocopies</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24363131</t>
+  </si>
+  <si>
+    <t>Expanding the genetics of huntingtonism</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24363136</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3899480/</t>
+  </si>
+  <si>
+    <t>Treatment of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24366610</t>
+  </si>
+  <si>
+    <t>A mitochondrial basis for Huntington's disease: therapeutic prospects</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24374792</t>
+  </si>
+  <si>
+    <t>Executive functions in premanifest Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24375511</t>
+  </si>
+  <si>
+    <t>Results of the citalopram to enhance cognition in Huntington disease trial</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24375941</t>
+  </si>
+  <si>
+    <t>Preventing formation of toxic N-terminal huntingtin fragments through antisense oligonucleotide-mediated protein modification</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24380395</t>
+  </si>
+  <si>
+    <t>Dexamethasone induces heat shock response and slows down disease progression in mouse and fly models of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24381308</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3880172/</t>
+  </si>
+  <si>
+    <t>A single nucleotide polymorphism in the coding region of PGC-1α is a male-specific modifier of Huntington disease age-at-onset in a large European cohort</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24383721</t>
+  </si>
+  <si>
+    <t>Sulforaphane enhances proteasomal and autophagic activities in mice and is a potential therapeutic reagent for Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24383989</t>
+  </si>
+  <si>
+    <t>Drugging unconventional targets: insights from Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24388390</t>
+  </si>
+  <si>
+    <t>Polyglutamine expansion disturbs the endoplasmic reticulum formation, leading to caspase-7 activation through Bax</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24388981</t>
+  </si>
+  <si>
+    <t>Mitochondrial cofactors in experimental Huntington's disease: behavioral, biochemical and histological evaluation.</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24393741</t>
+  </si>
+  <si>
+    <t>Fetal grafting for Huntington's disease. Is there a hope?</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24403286</t>
+  </si>
+  <si>
+    <t>White matter integrity in premanifest and early Huntington's disease is related to caudate loss and disease progression</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24405816</t>
+  </si>
+  <si>
+    <t>A large scale Huntingtin protein interaction network implicates Rho GTPase signaling pathways in Huntington disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24407293</t>
+  </si>
+  <si>
+    <t>Article in French</t>
+  </si>
+  <si>
+    <t>Potomania revealing Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24411686</t>
+  </si>
+  <si>
+    <t>Inactivation of Apaf1 reduces the formation of mutant huntingtin-dependent aggregates and cell death</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24412373</t>
+  </si>
+  <si>
+    <t>An experimental model for Huntington's chorea?</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24412685</t>
+  </si>
+  <si>
+    <t>The role of oxidative stress in Huntington's disease: are antioxidants good therapeutic candidates?</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24428525</t>
+  </si>
+  <si>
+    <t>Foundation-directed therapeutic development in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24432836</t>
+  </si>
+  <si>
+    <t>A potent and selective Sirtuin 1 inhibitor alleviates pathology in multiple animal and cell models of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24436303</t>
+  </si>
+  <si>
+    <t>First case with Huntington's disease in The Gambia</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24439197</t>
+  </si>
+  <si>
+    <t>Neonatal immune-tolerance in mice does not prevent xenograft rejection</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24440640</t>
+  </si>
+  <si>
+    <t>Neurochemical correlates of caudate atrophy in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24442623</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3906754/</t>
+  </si>
+  <si>
+    <t>Prevalence of neurological conditions across the continuum of care based on interRAI assessments</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24447344</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC4030768/</t>
+  </si>
+  <si>
+    <t>Copy-number variation of the neuronal glucose transporter gene SLC2A3 and age of onset in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24452335</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3898289/</t>
+  </si>
+  <si>
+    <t>The regulation of autophagosome dynamics by huntingtin and HAP1 is disrupted by expression of mutant huntingtin, leading to defective cargo degradation</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24453320</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3893200/</t>
+  </si>
+  <si>
+    <t>Effectiveness of anti-psychotics and related drugs in the Huntington French-speaking group cohort</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24454865</t>
+  </si>
+  <si>
+    <t>Inverse and direct cancer comorbidity in people with central nervous system disorders: a meta-analysis of cancer incidence in 577,013 participants of 50 observational studies</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24458030</t>
+  </si>
+  <si>
+    <t>HTT-lowering reverses Huntington's disease immune dysfunction caused by NFκB pathway dysregulation</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24459107</t>
+  </si>
+  <si>
+    <t>Huntingtin gene CAG repeat numbers in Chinese patients with Huntington's disease and controls</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24471773</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3903676/</t>
+  </si>
+  <si>
+    <t>Ubiquilin-1 overexpression increases the lifespan and delays accumulation of Huntingtin aggregates in the R6/2 mouse model of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24475300</t>
+  </si>
+  <si>
+    <t>White matter connectivity reflects clinical and cognitive status in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24480090</t>
+  </si>
+  <si>
+    <t>Silencing mutant huntingtin by adeno-associated virus-mediated RNA interference ameliorates disease manifestations in the YAC128 mouse model of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24484067</t>
+  </si>
+  <si>
+    <t>Neuronal signaling through endocytosis</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24492712</t>
+  </si>
+  <si>
+    <t>Motor dysfunction influence on executive functioning in manifest and premanifest Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24500841</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3913682/</t>
+  </si>
+  <si>
+    <t>A monoclonal antibody TrkB receptor agonist as a potential therapeutic for Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24503862</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3914950/</t>
+  </si>
+  <si>
+    <t>Phosphorylation of mutant huntingtin at serine 116 modulates neuronal toxicity</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24505464</t>
+  </si>
+  <si>
+    <t>Melatonin protects against behavioural dysfunctions and dendritic spine damage in 3-nitropropionic acid-induced rat model of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24509309</t>
+  </si>
+  <si>
+    <t>Feasibility of Huntington disease trials in the disease prodrome</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24510495</t>
+  </si>
+  <si>
+    <t>PRECREST: a phase II prevention and biomarker trial of creatine in at-risk Huntington disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24510496</t>
+  </si>
+  <si>
+    <t>Article in Chinese</t>
+  </si>
+  <si>
+    <t>Advance in research on spinocerebellar ataxia 17</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24510561</t>
+  </si>
+  <si>
+    <t>Preliminary study of the association of white-matter metabolite concentrations with disease severity in patients with Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24515683</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3939919/</t>
+  </si>
+  <si>
+    <t>HACE1 reduces oxidative stress and mutant Huntingtin toxicity by promoting the NRF2 response</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24516159</t>
+  </si>
+  <si>
+    <t>On-road driving impairments in Huntington disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24523484</t>
+  </si>
+  <si>
+    <t>Study of cholesterol metabolism in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24525128</t>
+  </si>
+  <si>
+    <t>Autopsy case of concurrent Huntington's disease and neurofibromatosis type 1</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24528652</t>
+  </si>
+  <si>
+    <t>An evolutionarily conserved long noncoding RNA TUNA controls pluripotency and neural lineage commitment</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24530304</t>
+  </si>
+  <si>
+    <t>High prevalence of diabetes mellitus in a five-generation Chinese family with Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24531153</t>
+  </si>
+  <si>
+    <t>CDK5 protects from caspase-induced Ataxin-3 cleavage and neurodegeneration</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24548080</t>
+  </si>
+  <si>
+    <t>Neurogenesis in the striatum of the adult human brain</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24561062</t>
+  </si>
+  <si>
+    <t>Dopaminergic manipulations and its effects on neurogenesis and motor function in a transgenic mouse model of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24561069</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3937529/</t>
+  </si>
+  <si>
+    <t>A retrospective analysis of hand tapping as a longitudinal marker of disease progression in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24564568</t>
+  </si>
+  <si>
+    <t>Susceptibility-weighted imaging changes suggesting brain iron accumulation in Huntington's disease: an epiphenomenon which causes diagnostic difficulty</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24571106</t>
+  </si>
+  <si>
+    <t>Prospects for neuroprotective therapies in prodromal Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24573776</t>
+  </si>
+  <si>
+    <t>Acute psychosis in a verified Huntington disease gene carrier with subtle motor signs: psychiatric criteria should be considered for the diagnosis</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24576988</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC4015530/</t>
+  </si>
+  <si>
+    <t>A two years longitudinal study of a transgenic Huntington disease monkey</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24581271</t>
+  </si>
+  <si>
+    <t>Pharmacological benefit of I(1)-imidazoline receptors activation and nuclear factor kappa-B (NF-κB) modulation in experimental Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24582883</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC4113004/</t>
+  </si>
+  <si>
+    <t>Mutant Huntingtin promotes autonomous microglia activation via myeloid lineage-determining factors</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24584051</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3937267/</t>
+  </si>
+  <si>
+    <t>MicroRNAs located in the Hox gene clusters are implicated in huntington's disease pathogenesis</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24586208</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3934989/</t>
+  </si>
+  <si>
+    <t>Trehalose reverses cell malfunction in fibroblasts from normal and Huntington's disease patients caused by proteosome inhibition</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24587280</t>
+  </si>
+  <si>
+    <t>Alterations in STriatal-Enriched protein tyrosine Phosphatase expression, activation, and downstream signaling in early and late stages of the YAC128 Huntington's disease mouse model</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24588402</t>
+  </si>
+  <si>
+    <t>Ferrostatins inhibit oxidative lipid damage and cell death in diverse disease models</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24592866</t>
+  </si>
+  <si>
+    <t>Biophysical underpinnings of the repeat length dependence of polyglutamine amyloid formation</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24596088</t>
+  </si>
+  <si>
+    <t>Huntington disease: natural history, biomarkers and prospects for therapeutics</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24614516</t>
+  </si>
+  <si>
+    <t>Pharmacological properties and clinical efficacy of tetrabenazine (Choreazine(®)Tablets 12.5 mg), a therapeutic agent for non-rhythmic involuntary movement</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24614638</t>
+  </si>
+  <si>
+    <t>Differential diagnosis of Huntington's disease: what the clinician should know</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24640980</t>
+  </si>
+  <si>
+    <t>Decreased O-linked GlcNAcylation protects from cytotoxicity mediated by huntingtin exon1 protein fragment</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24648514</t>
+  </si>
+  <si>
+    <t>Intrastriatal transplantation of adenovirus-generated induced pluripotent stem cells for treating neuropathological and functional deficits in a rodent model of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24657963</t>
+  </si>
+  <si>
+    <t>Cytoplasmic dynein: a key player in neurodegenerative and neurodevelopmental diseases</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24664850</t>
+  </si>
+  <si>
+    <t>Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24668480</t>
+  </si>
+  <si>
+    <t>Cystathionine γ-lyase deficiency mediates neurodegeneration in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24670645</t>
+  </si>
+  <si>
+    <t>Identification of novel HSP90α/β isoform selective inhibitors using structure-based drug design. demonstration of potential utility in treating CNS disorders such as Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24673104</t>
+  </si>
+  <si>
+    <t>Article in Russian</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24678542</t>
+  </si>
+  <si>
+    <t>Sex differences in Parkinson's disease and other movement disorders</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24681088</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC4064471/</t>
+  </si>
+  <si>
+    <t>Astrocyte Kir4.1 ion channel deficits contribute to neuronal dysfunction in Huntington's disease model mice</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24686787</t>
+  </si>
+  <si>
+    <t>Vowel acoustics in dysarthria: speech disorder diagnosis and classification</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24687467</t>
+  </si>
+  <si>
+    <t>Vowel acoustics in dysarthria: mapping to perception</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24687468</t>
+  </si>
+  <si>
+    <t>Protective effects of phosphodiesterase-1 (PDE1) and ATP sensitive potassium (KATP) channel modulators against 3-nitropropionic acid induced behavioral and biochemical toxicities in experimental Huntington׳s disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24690258</t>
+  </si>
+  <si>
+    <t>Exploring the effect of sequence length and composition on allele-selective inhibition of human huntingtin expression by single-stranded silencing RNAs</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24694346</t>
+  </si>
+  <si>
+    <t>Deep brain stimulation for Huntington's disease: long-term results of a prospective open-label study</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24702329</t>
+  </si>
+  <si>
+    <t>Progressive hepatic mitochondrial dysfunction in premanifest Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24710776</t>
+  </si>
+  <si>
+    <t>Iron dysregulation in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24717009</t>
+  </si>
+  <si>
+    <t>A review on the cause-effect relationship between oxidative stress and toxic proteins in the pathogenesis of neurodegenerative diseases</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24741770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ncbi.nlm.nih.gov/pmc/articles/PMC3986496/ </t>
+  </si>
+  <si>
+    <t>Right ventricular dysfunction in the R6/2 transgenic mouse model of Huntington's disease is unmasked by dobutamine</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24744818</t>
+  </si>
+  <si>
+    <t>The cognitive burden in Huntington's disease: pathology, phenotype, and mechanisms of compensation</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24757115</t>
+  </si>
+  <si>
+    <t>Cortical interneuron loss and symptom heterogeneity in Huntington disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24771513</t>
+  </si>
+  <si>
+    <t>Brain shaving: adaptive detection for brain PET data</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24778363</t>
+  </si>
+  <si>
+    <t>Huntington's disease (HD): degeneration of select nuclei, widespread occurrence of neuronal nuclear and axonal inclusions in the brainstem</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24779419</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC4067603/</t>
+  </si>
+  <si>
+    <t>Neuronal targets for reducing mutant huntingtin expression to ameliorate disease in a mouse model of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24784230</t>
+  </si>
+  <si>
+    <t>Mutant huntingtin is present in neuronal grafts in Huntington disease patients</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24798518</t>
+  </si>
+  <si>
+    <t>Modulation of mitochondrial function by stem cell-derived cellular components</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24802395</t>
+  </si>
+  <si>
+    <t>Polyglutamine (PolyQ) diseases: genetics to treatments</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24816443</t>
+  </si>
+  <si>
+    <t>ADSC therapy in neurodegenerative disorders</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24816450</t>
+  </si>
+  <si>
+    <t>Neurodegenerative disease: Revealing cellular targets in HD</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24824179</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC4019512/</t>
+  </si>
+  <si>
+    <t>AAV-dominant negative tumor necrosis factor (DN-TNF) gene transfer to the striatum does not rescue medium spiny neurons in the YAC128 mouse model of Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24824433</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC4020751/</t>
+  </si>
+  <si>
+    <t>Polyglutamine-rich suppressors of huntingtin toxicity act upstream of Hsp70 and Sti1 in spatial quality control of amyloid-like proteins</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24828240</t>
+  </si>
+  <si>
+    <t>Neurophysiology in Huntington's disease: an update</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24832033</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC4174557/</t>
+  </si>
+  <si>
+    <t>Inhibition of mitochondrial protein import by mutant huntingtin</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24836077</t>
+  </si>
+  <si>
+    <t>Impaired import: how huntingtin harms</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24866036</t>
+  </si>
+  <si>
+    <t>Astrocytes go awry in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24883452</t>
+  </si>
+  <si>
+    <t>Frontal cortex BOLD signal changes in premanifest Huntington disease: a possible fMRI biomarker</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24898924</t>
+  </si>
+  <si>
+    <t>Comment: fMRI biomarker for premanifest HD?</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24898927</t>
+  </si>
+  <si>
+    <t>Aggregation behavior of chemically synthesized, full-length huntingtin exon1</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24921664</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC4065582/</t>
+  </si>
+  <si>
+    <t>microRNA-128a dysregulation in transgenic Huntington's disease monkeys</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24929669</t>
+  </si>
+  <si>
+    <t>Impaired brain energy metabolism in the BACHD mouse model of Huntington's disease: critical role of astrocyte-neuron interactions</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24938402</t>
+  </si>
+  <si>
+    <t>AMPK-α1 functions downstream of oxidative stress to mediate neuronal atrophy in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24946181</t>
+  </si>
+  <si>
+    <t>Slowing of neurodegeneration in Parkinson's disease and Huntington's disease: future therapeutic perspectives</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24954676</t>
+  </si>
+  <si>
+    <t>Misfolded proteins in Huntington disease fetal grafts: further evidence of cell-to-cell transfer?</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24961209</t>
+  </si>
+  <si>
+    <t>It's not necessarily all about the delivery in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24991950</t>
+  </si>
+  <si>
+    <t>Impaired TrkB receptor signaling underlies corticostriatal dysfunction in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/24991961</t>
+  </si>
+  <si>
+    <t>Task-specific training in Huntington disease: a randomized controlled feasibility trial</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25012999</t>
+  </si>
+  <si>
+    <t>Transneuronal propagation of mutant huntingtin contributes to non-cell autonomous pathology in neurons</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25017010</t>
+  </si>
+  <si>
+    <t>Huntington's disease is a four-repeat tauopathy with tau nuclear rods</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25038828</t>
+  </si>
+  <si>
+    <t>Huntington's disease in popular culture: a brief historical perspective</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062760</t>
+  </si>
+  <si>
+    <t>Aquatherapy for neurodegenerative disorders</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062761</t>
+  </si>
+  <si>
+    <t>Skeletal muscle atrophy in R6/2 mice - altered circulating skeletal muscle markers and gene expression profile changes</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062762</t>
+  </si>
+  <si>
+    <t>Changes in cognitive control in pre-manifest Huntington's disease examined using pre-saccadic EEG potentials - a longitudinal study</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062763</t>
+  </si>
+  <si>
+    <t>Widespread heterogeneous neuronal loss across the cerebral cortex in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062764</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC4139702/</t>
+  </si>
+  <si>
+    <t>Rhes suppression enhances disease phenotypes in Huntington's disease mice</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062765</t>
+  </si>
+  <si>
+    <t>Experimental mutagenesis of huntingtin to map cleavage sites: different outcomes in cell and mouse models</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062766</t>
+  </si>
+  <si>
+    <t>Kinase signalling in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062854</t>
+  </si>
+  <si>
+    <t>Unawareness of deficits in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062855</t>
+  </si>
+  <si>
+    <t>Tetrabenazine, depression and suicide: good news</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062856</t>
+  </si>
+  <si>
+    <t>Does interval between screening and baseline matter in HD cognitive clinical trials?</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062857</t>
+  </si>
+  <si>
+    <t>Cognitive deficits in transgenic and knock-in HTT mice parallel those in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062858</t>
+  </si>
+  <si>
+    <t>Assessment of chloroquine treatment for modulating autophagy flux in brain of WT and HD mice</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062859</t>
+  </si>
+  <si>
+    <t>Optimising mobility outcome measures in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062860</t>
+  </si>
+  <si>
+    <t>A pilot study of virtual visits in Huntington disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062861</t>
+  </si>
+  <si>
+    <t>The potential of composite cognitive scores for tracking progression in Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062862</t>
+  </si>
+  <si>
+    <t>The co-occurrence of Alzheimer's disease and Huntington's disease: a neuropathological study of 15 elderly Huntington's disease subjects</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25062863</t>
+  </si>
+  <si>
+    <t>Something wicked this way comes: huntingtin</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25065434</t>
+  </si>
+  <si>
+    <t>ARMA modelling and nonparametric probability density function of gait signal using L2-L1 estimator in patients with neurodegenerative disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25074223</t>
+  </si>
+  <si>
+    <t>Neurodegenerative disease: propagating pathology</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25074703</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC4110737/</t>
+  </si>
+  <si>
+    <t>Structure prediction of polyglutamine disease proteins: comparison of methods</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25080018</t>
+  </si>
+  <si>
+    <t>Architecture of polyglutamine-containing fibrils from time-resolved fluorescence decay</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25092288</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pmc/articles/PMC4230319/</t>
+  </si>
+  <si>
+    <t>Clinimetric properties of the Tinetti Mobility Test, Four Square Step Test, Activities-specific Balance Confidence Scale, and spatiotemporal gait measures in individuals with Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25128156</t>
+  </si>
+  <si>
+    <t>Huntingtin regulates Ca(2+) chemotaxis and K(+)-facilitated cAMP chemotaxis, in conjunction with the monovalent cation/H(+) exchanger Nhe1, in a model developmental system: insights into its possible role in Huntington׳s disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25149514</t>
+  </si>
+  <si>
+    <t>Saccadic eye movements in juvenile variant of Huntington disease.</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25168321</t>
+  </si>
+  <si>
+    <t>Insights into gait disorders: walking variability using phase plot analysis, Huntington's disease</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25172806</t>
+  </si>
+  <si>
+    <t>http://www.hdbp.org/psychiatria_danubina/pdf/dnb_vol26_no3/dnb_vol26_no3_239.pdf</t>
+  </si>
+  <si>
+    <t>Cognitive function in early clinical phase huntington disease after rivastigmine treatment.</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25191771</t>
+  </si>
+  <si>
+    <t>Palliative Care Doula: an innovative model.</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25296488</t>
+  </si>
+  <si>
+    <t>Diffeomorphic shape trajectories for improved longitudinal segmentation and statistics</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/25320781</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,13 +1954,26 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -604,7 +1998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -627,6 +2021,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -900,7 +2311,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -910,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2719,15 +4130,5161 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44" style="3" customWidth="1"/>
+    <col min="8" max="8" width="54.5" style="9" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.6640625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27">
+      <c r="A2" s="13">
+        <v>25320781</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" ht="14">
+      <c r="A3" s="13">
+        <v>25296488</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="27">
+      <c r="A4" s="13">
+        <v>25191771</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="27">
+      <c r="A5" s="13">
+        <v>25172806</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="27">
+      <c r="A6" s="13">
+        <v>25168321</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="53">
+      <c r="A7" s="13">
+        <v>25149514</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" ht="53">
+      <c r="A8" s="13">
+        <v>25128156</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" ht="27">
+      <c r="A9" s="13">
+        <v>25092288</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" ht="27">
+      <c r="A10" s="13">
+        <v>25080018</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" ht="14">
+      <c r="A11" s="13">
+        <v>25074703</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" ht="40">
+      <c r="A12" s="13">
+        <v>25074223</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" ht="14">
+      <c r="A13" s="13">
+        <v>25065434</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="40">
+      <c r="A14" s="13">
+        <v>25062863</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" ht="27">
+      <c r="A15" s="13">
+        <v>25062862</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" ht="14">
+      <c r="A16" s="13">
+        <v>25062861</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="27">
+      <c r="A17" s="13">
+        <v>25062860</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="27">
+      <c r="A18" s="13">
+        <v>25062859</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="27">
+      <c r="A19" s="13">
+        <v>25062858</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" ht="27">
+      <c r="A20" s="13">
+        <v>25062857</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="14">
+      <c r="A21" s="13">
+        <v>25062856</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="14">
+      <c r="A22" s="13">
+        <v>25062855</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" ht="14">
+      <c r="A23" s="13">
+        <v>25062854</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="27">
+      <c r="A24" s="13">
+        <v>25062766</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" ht="27">
+      <c r="A25" s="13">
+        <v>25062765</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" ht="27">
+      <c r="A26" s="13">
+        <v>25062764</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" ht="40">
+      <c r="A27" s="13">
+        <v>25062763</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" ht="27">
+      <c r="A28" s="13">
+        <v>25062762</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" ht="14">
+      <c r="A29" s="13">
+        <v>25062761</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" ht="27">
+      <c r="A30" s="13">
+        <v>25062760</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" ht="27">
+      <c r="A31" s="13">
+        <v>25038828</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" ht="27">
+      <c r="A32" s="13">
+        <v>25017010</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" ht="27">
+      <c r="A33" s="13">
+        <v>25012999</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" ht="27">
+      <c r="A34" s="13">
+        <v>24991961</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" ht="27">
+      <c r="A35" s="13">
+        <v>24991950</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" ht="27">
+      <c r="A36" s="13">
+        <v>24961209</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" ht="27">
+      <c r="A37" s="13">
+        <v>24954676</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" ht="27">
+      <c r="A38" s="13">
+        <v>24946181</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" ht="40">
+      <c r="A39" s="13">
+        <v>24938402</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" ht="27">
+      <c r="A40" s="13">
+        <v>24929669</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" ht="27">
+      <c r="A41" s="13">
+        <v>24921664</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" ht="14">
+      <c r="A42" s="13">
+        <v>24898927</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" ht="27">
+      <c r="A43" s="13">
+        <v>24898924</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" ht="14">
+      <c r="A44" s="13">
+        <v>24883452</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" ht="14">
+      <c r="A45" s="13">
+        <v>24866036</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" ht="27">
+      <c r="A46" s="13">
+        <v>24836077</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" ht="14">
+      <c r="A47" s="13">
+        <v>24832033</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" ht="40">
+      <c r="A48" s="13">
+        <v>24828240</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" ht="40">
+      <c r="A49" s="13">
+        <v>24824433</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" ht="14">
+      <c r="A50" s="13">
+        <v>24824179</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" ht="14">
+      <c r="A51" s="13">
+        <v>24816450</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:10" ht="14">
+      <c r="A52" s="13">
+        <v>24816443</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="1:10" ht="27">
+      <c r="A53" s="13">
+        <v>24802395</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="16"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="1:10" ht="27">
+      <c r="A54" s="13">
+        <v>24798518</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="16"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="1:10" ht="40">
+      <c r="A55" s="13">
+        <v>24784230</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="16"/>
+      <c r="H55" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="1:10" ht="40">
+      <c r="A56" s="13">
+        <v>24779419</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="16"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:10" ht="14">
+      <c r="A57" s="13">
+        <v>24778363</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:10" ht="27">
+      <c r="A58" s="13">
+        <v>24771513</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="16"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="1:10" ht="27">
+      <c r="A59" s="13">
+        <v>24757115</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="16"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="1:10" ht="27">
+      <c r="A60" s="13">
+        <v>24744818</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="16"/>
+      <c r="H60" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="1:10" ht="40">
+      <c r="A61" s="13">
+        <v>24741770</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="16"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="1:10" ht="14">
+      <c r="A62" s="13">
+        <v>24717009</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="16"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="1:10" ht="27">
+      <c r="A63" s="13">
+        <v>24710776</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="16"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="12"/>
+    </row>
+    <row r="64" spans="1:10" ht="27">
+      <c r="A64" s="13">
+        <v>24702329</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="16"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="12"/>
+    </row>
+    <row r="65" spans="1:10" ht="40">
+      <c r="A65" s="13">
+        <v>24694346</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="12"/>
+    </row>
+    <row r="66" spans="1:10" ht="53">
+      <c r="A66" s="13">
+        <v>24690258</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="16"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="12"/>
+    </row>
+    <row r="67" spans="1:10" ht="14">
+      <c r="A67" s="13">
+        <v>24687468</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="16"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="12"/>
+    </row>
+    <row r="68" spans="1:10" ht="27">
+      <c r="A68" s="13">
+        <v>24687467</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="12"/>
+    </row>
+    <row r="69" spans="1:10" ht="27">
+      <c r="A69" s="13">
+        <v>24686787</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J69" s="12"/>
+    </row>
+    <row r="70" spans="1:10" ht="27">
+      <c r="A70" s="13">
+        <v>24681088</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="16"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="12"/>
+    </row>
+    <row r="71" spans="1:10" ht="14">
+      <c r="A71" s="13">
+        <v>24678542</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="16"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="53">
+      <c r="A72" s="13">
+        <v>24673104</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="16"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="12"/>
+    </row>
+    <row r="73" spans="1:10" ht="27">
+      <c r="A73" s="13">
+        <v>24670645</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="16"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="12"/>
+    </row>
+    <row r="74" spans="1:10" ht="14">
+      <c r="A74" s="13">
+        <v>24668480</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="D74" s="17"/>
+      <c r="E74" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" s="16"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="12"/>
+    </row>
+    <row r="75" spans="1:10" ht="27">
+      <c r="A75" s="13">
+        <v>24664850</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="16"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="12"/>
+    </row>
+    <row r="76" spans="1:10" ht="40">
+      <c r="A76" s="13">
+        <v>24657963</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" s="16"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="12"/>
+    </row>
+    <row r="77" spans="1:10" ht="27">
+      <c r="A77" s="13">
+        <v>24648514</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="E77" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" s="16"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="12"/>
+    </row>
+    <row r="78" spans="1:10" ht="27">
+      <c r="A78" s="13">
+        <v>24640980</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78" s="16"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="12"/>
+    </row>
+    <row r="79" spans="1:10" ht="40">
+      <c r="A79" s="13">
+        <v>24614638</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" s="16"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="27">
+      <c r="A80" s="13">
+        <v>24614516</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" s="16"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="12"/>
+    </row>
+    <row r="81" spans="1:10" ht="27">
+      <c r="A81" s="13">
+        <v>24596088</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" s="16"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="12"/>
+    </row>
+    <row r="82" spans="1:10" ht="27">
+      <c r="A82" s="13">
+        <v>24592866</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="E82" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" s="16"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="12"/>
+    </row>
+    <row r="83" spans="1:10" ht="40">
+      <c r="A83" s="13">
+        <v>24588402</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83" s="16"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="12"/>
+    </row>
+    <row r="84" spans="1:10" ht="40">
+      <c r="A84" s="13">
+        <v>24587280</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D84" s="17"/>
+      <c r="E84" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="16"/>
+      <c r="H84" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J84" s="12"/>
+    </row>
+    <row r="85" spans="1:10" ht="27">
+      <c r="A85" s="13">
+        <v>24586208</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="E85" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="16"/>
+      <c r="H85" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J85" s="12"/>
+    </row>
+    <row r="86" spans="1:10" ht="27">
+      <c r="A86" s="13">
+        <v>24584051</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="16"/>
+      <c r="H86" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J86" s="12"/>
+    </row>
+    <row r="87" spans="1:10" ht="40">
+      <c r="A87" s="13">
+        <v>24582883</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D87" s="17"/>
+      <c r="E87" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" s="16"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="12"/>
+    </row>
+    <row r="88" spans="1:10" ht="27">
+      <c r="A88" s="13">
+        <v>24581271</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="16"/>
+      <c r="H88" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="I88" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J88" s="12"/>
+    </row>
+    <row r="89" spans="1:10" ht="40">
+      <c r="A89" s="13">
+        <v>24576988</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="D89" s="17"/>
+      <c r="E89" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" s="16"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="12"/>
+    </row>
+    <row r="90" spans="1:10" ht="27">
+      <c r="A90" s="13">
+        <v>24573776</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D90" s="17"/>
+      <c r="E90" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" s="16"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="12"/>
+    </row>
+    <row r="91" spans="1:10" ht="40">
+      <c r="A91" s="13">
+        <v>24571106</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D91" s="17"/>
+      <c r="E91" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" s="16"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="12"/>
+    </row>
+    <row r="92" spans="1:10" ht="27">
+      <c r="A92" s="13">
+        <v>24564568</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" s="16"/>
+      <c r="H92" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="I92" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J92" s="12"/>
+    </row>
+    <row r="93" spans="1:10" ht="40">
+      <c r="A93" s="13">
+        <v>24561069</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" s="16"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="12"/>
+    </row>
+    <row r="94" spans="1:10" ht="14">
+      <c r="A94" s="13">
+        <v>24561062</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G94" s="16"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="12"/>
+    </row>
+    <row r="95" spans="1:10" ht="27">
+      <c r="A95" s="13">
+        <v>24548080</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D95" s="17"/>
+      <c r="E95" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" s="16"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="12"/>
+    </row>
+    <row r="96" spans="1:10" ht="27">
+      <c r="A96" s="13">
+        <v>24531153</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D96" s="17"/>
+      <c r="E96" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" s="16"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="12"/>
+    </row>
+    <row r="97" spans="1:10" ht="27">
+      <c r="A97" s="13">
+        <v>24530304</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D97" s="17"/>
+      <c r="E97" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" s="16"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="12"/>
+    </row>
+    <row r="98" spans="1:10" ht="27">
+      <c r="A98" s="13">
+        <v>24528652</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D98" s="17"/>
+      <c r="E98" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G98" s="16"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="12"/>
+    </row>
+    <row r="99" spans="1:10" ht="14">
+      <c r="A99" s="13">
+        <v>24525128</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D99" s="17"/>
+      <c r="E99" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" s="16"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="12"/>
+    </row>
+    <row r="100" spans="1:10" ht="14">
+      <c r="A100" s="13">
+        <v>24523484</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D100" s="17"/>
+      <c r="E100" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G100" s="16"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="12"/>
+    </row>
+    <row r="101" spans="1:10" ht="27">
+      <c r="A101" s="13">
+        <v>24516159</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="D101" s="17"/>
+      <c r="E101" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" s="16"/>
+      <c r="H101" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J101" s="12"/>
+    </row>
+    <row r="102" spans="1:10" ht="40">
+      <c r="A102" s="13">
+        <v>24515683</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D102" s="17"/>
+      <c r="E102" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G102" s="16"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="12"/>
+    </row>
+    <row r="103" spans="1:10" ht="14">
+      <c r="A103" s="13">
+        <v>24510561</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G103" s="16"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="27">
+      <c r="A104" s="13">
+        <v>24510496</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D104" s="17"/>
+      <c r="E104" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G104" s="16"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="12"/>
+    </row>
+    <row r="105" spans="1:10" ht="27">
+      <c r="A105" s="13">
+        <v>24510495</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D105" s="17"/>
+      <c r="E105" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G105" s="16"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="12"/>
+    </row>
+    <row r="106" spans="1:10" ht="40">
+      <c r="A106" s="13">
+        <v>24509309</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D106" s="17"/>
+      <c r="E106" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G106" s="16"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="12"/>
+    </row>
+    <row r="107" spans="1:10" ht="27">
+      <c r="A107" s="13">
+        <v>24505464</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D107" s="17"/>
+      <c r="E107" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" s="16"/>
+      <c r="H107" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="I107" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J107" s="12"/>
+    </row>
+    <row r="108" spans="1:10" ht="27">
+      <c r="A108" s="13">
+        <v>24503862</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D108" s="17"/>
+      <c r="E108" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" s="16"/>
+      <c r="H108" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="I108" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J108" s="12"/>
+    </row>
+    <row r="109" spans="1:10" ht="27">
+      <c r="A109" s="13">
+        <v>24500841</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D109" s="17"/>
+      <c r="E109" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G109" s="16"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="12"/>
+    </row>
+    <row r="110" spans="1:10" ht="14">
+      <c r="A110" s="13">
+        <v>24492712</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D110" s="17"/>
+      <c r="E110" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110" s="16"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="12"/>
+    </row>
+    <row r="111" spans="1:10" ht="53">
+      <c r="A111" s="13">
+        <v>24484067</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D111" s="17"/>
+      <c r="E111" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G111" s="16"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="12"/>
+    </row>
+    <row r="112" spans="1:10" ht="27">
+      <c r="A112" s="13">
+        <v>24480090</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D112" s="17"/>
+      <c r="E112" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G112" s="16"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="12"/>
+    </row>
+    <row r="113" spans="1:10" ht="40">
+      <c r="A113" s="13">
+        <v>24475300</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D113" s="17"/>
+      <c r="E113" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" s="16"/>
+      <c r="H113" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="I113" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J113" s="12"/>
+    </row>
+    <row r="114" spans="1:10" ht="27">
+      <c r="A114" s="13">
+        <v>24471773</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D114" s="17"/>
+      <c r="E114" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G114" s="16"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="12"/>
+    </row>
+    <row r="115" spans="1:10" ht="27">
+      <c r="A115" s="13">
+        <v>24459107</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D115" s="17"/>
+      <c r="E115" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G115" s="16"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="12"/>
+    </row>
+    <row r="116" spans="1:10" ht="40">
+      <c r="A116" s="13">
+        <v>24458030</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D116" s="17"/>
+      <c r="E116" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" s="16"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="12"/>
+    </row>
+    <row r="117" spans="1:10" ht="27">
+      <c r="A117" s="13">
+        <v>24454865</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D117" s="17"/>
+      <c r="E117" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" s="16"/>
+      <c r="H117" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="I117" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J117" s="12"/>
+    </row>
+    <row r="118" spans="1:10" ht="40">
+      <c r="A118" s="13">
+        <v>24453320</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D118" s="17"/>
+      <c r="E118" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" s="16"/>
+      <c r="H118" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I118" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J118" s="12"/>
+    </row>
+    <row r="119" spans="1:10" ht="27">
+      <c r="A119" s="13">
+        <v>24452335</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D119" s="17"/>
+      <c r="E119" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" s="16"/>
+      <c r="H119" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="I119" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J119" s="12"/>
+    </row>
+    <row r="120" spans="1:10" ht="27">
+      <c r="A120" s="13">
+        <v>24447344</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D120" s="17"/>
+      <c r="E120" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" s="16"/>
+      <c r="H120" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="I120" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J120" s="12"/>
+    </row>
+    <row r="121" spans="1:10" ht="27">
+      <c r="A121" s="13">
+        <v>24442623</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D121" s="17"/>
+      <c r="E121" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G121" s="16"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="12"/>
+    </row>
+    <row r="122" spans="1:10" ht="27">
+      <c r="A122" s="13">
+        <v>24440640</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D122" s="17"/>
+      <c r="E122" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G122" s="16"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="12"/>
+    </row>
+    <row r="123" spans="1:10" ht="14">
+      <c r="A123" s="13">
+        <v>24439197</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D123" s="17"/>
+      <c r="E123" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" s="16"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="12"/>
+    </row>
+    <row r="124" spans="1:10" ht="27">
+      <c r="A124" s="13">
+        <v>24436303</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D124" s="17"/>
+      <c r="E124" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G124" s="16"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="12"/>
+    </row>
+    <row r="125" spans="1:10" ht="27">
+      <c r="A125" s="13">
+        <v>24432836</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D125" s="17"/>
+      <c r="E125" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" s="16"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="12"/>
+    </row>
+    <row r="126" spans="1:10" ht="27">
+      <c r="A126" s="13">
+        <v>24428525</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D126" s="17"/>
+      <c r="E126" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G126" s="16"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="12"/>
+    </row>
+    <row r="127" spans="1:10" ht="14">
+      <c r="A127" s="13">
+        <v>24412685</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D127" s="17"/>
+      <c r="E127" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G127" s="16"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="12"/>
+    </row>
+    <row r="128" spans="1:10" ht="27">
+      <c r="A128" s="13">
+        <v>24412373</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D128" s="17"/>
+      <c r="E128" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G128" s="16"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="12"/>
+    </row>
+    <row r="129" spans="1:10" ht="14">
+      <c r="A129" s="13">
+        <v>24411686</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D129" s="17"/>
+      <c r="E129" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G129" s="16"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="40">
+      <c r="A130" s="13">
+        <v>24407293</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D130" s="17"/>
+      <c r="E130" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G130" s="16"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="12"/>
+    </row>
+    <row r="131" spans="1:10" ht="27">
+      <c r="A131" s="13">
+        <v>24405816</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D131" s="17"/>
+      <c r="E131" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G131" s="16"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="12"/>
+    </row>
+    <row r="132" spans="1:10" ht="14">
+      <c r="A132" s="13">
+        <v>24403286</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D132" s="17"/>
+      <c r="E132" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G132" s="16"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="12"/>
+    </row>
+    <row r="133" spans="1:10" ht="27">
+      <c r="A133" s="13">
+        <v>24393741</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D133" s="17"/>
+      <c r="E133" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G133" s="16"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="12"/>
+    </row>
+    <row r="134" spans="1:10" ht="27">
+      <c r="A134" s="13">
+        <v>24388981</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D134" s="17"/>
+      <c r="E134" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G134" s="16"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="12"/>
+    </row>
+    <row r="135" spans="1:10" ht="27">
+      <c r="A135" s="13">
+        <v>24388390</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D135" s="17"/>
+      <c r="E135" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G135" s="16"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="12"/>
+    </row>
+    <row r="136" spans="1:10" ht="40">
+      <c r="A136" s="13">
+        <v>24383989</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D136" s="17"/>
+      <c r="E136" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G136" s="16"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="12"/>
+    </row>
+    <row r="137" spans="1:10" ht="40">
+      <c r="A137" s="13">
+        <v>24383721</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D137" s="17"/>
+      <c r="E137" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" s="16"/>
+      <c r="H137" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="I137" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J137" s="12"/>
+    </row>
+    <row r="138" spans="1:10" ht="40">
+      <c r="A138" s="13">
+        <v>24381308</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D138" s="17"/>
+      <c r="E138" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G138" s="16"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="12"/>
+    </row>
+    <row r="139" spans="1:10" ht="40">
+      <c r="A139" s="13">
+        <v>24380395</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D139" s="17"/>
+      <c r="E139" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G139" s="16"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="12"/>
+    </row>
+    <row r="140" spans="1:10" ht="27">
+      <c r="A140" s="13">
+        <v>24375941</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D140" s="17"/>
+      <c r="E140" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G140" s="16"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="12"/>
+    </row>
+    <row r="141" spans="1:10" ht="14">
+      <c r="A141" s="13">
+        <v>24375511</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D141" s="17"/>
+      <c r="E141" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G141" s="16"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="12"/>
+    </row>
+    <row r="142" spans="1:10" ht="27">
+      <c r="A142" s="13">
+        <v>24374792</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D142" s="17"/>
+      <c r="E142" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G142" s="16"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="12"/>
+    </row>
+    <row r="143" spans="1:10" ht="14">
+      <c r="A143" s="13">
+        <v>24366610</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D143" s="17"/>
+      <c r="E143" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143" s="16"/>
+      <c r="H143" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I143" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J143" s="12"/>
+    </row>
+    <row r="144" spans="1:10" ht="14">
+      <c r="A144" s="13">
+        <v>24363136</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D144" s="17"/>
+      <c r="E144" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G144" s="16"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="12"/>
+    </row>
+    <row r="145" spans="1:10" ht="27">
+      <c r="A145" s="13">
+        <v>24363131</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D145" s="17"/>
+      <c r="E145" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" s="16"/>
+      <c r="H145" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="I145" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J145" s="12"/>
+    </row>
+    <row r="146" spans="1:10" ht="53">
+      <c r="A146" s="13">
+        <v>24360910</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D146" s="17"/>
+      <c r="E146" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G146" s="16"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="12"/>
+    </row>
+    <row r="147" spans="1:10" ht="27">
+      <c r="A147" s="13">
+        <v>24359962</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D147" s="17"/>
+      <c r="E147" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G147" s="16"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="12"/>
+    </row>
+    <row r="148" spans="1:10" ht="27">
+      <c r="A148" s="13">
+        <v>24353339</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D148" s="17"/>
+      <c r="E148" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F148" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G148" s="16"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="12"/>
+    </row>
+    <row r="149" spans="1:10" ht="27">
+      <c r="A149" s="13">
+        <v>24347577</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D149" s="17"/>
+      <c r="E149" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F149" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G149" s="16"/>
+      <c r="H149" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I149" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J149" s="12"/>
+    </row>
+    <row r="150" spans="1:10" ht="27">
+      <c r="A150" s="13">
+        <v>24334607</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D150" s="17"/>
+      <c r="E150" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G150" s="16"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="12"/>
+    </row>
+    <row r="151" spans="1:10" ht="40">
+      <c r="A151" s="13">
+        <v>24333873</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D151" s="17"/>
+      <c r="E151" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G151" s="16"/>
+      <c r="H151" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="I151" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J151" s="12"/>
+    </row>
+    <row r="152" spans="1:10" ht="27">
+      <c r="A152" s="13">
+        <v>24333475</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D152" s="17"/>
+      <c r="E152" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G152" s="16"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="12"/>
+    </row>
+    <row r="153" spans="1:10" ht="27">
+      <c r="A153" s="13">
+        <v>24328694</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D153" s="17"/>
+      <c r="E153" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G153" s="16"/>
+      <c r="H153" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="I153" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J153" s="12"/>
+    </row>
+    <row r="154" spans="1:10" ht="27">
+      <c r="A154" s="13">
+        <v>24324270</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D154" s="17"/>
+      <c r="E154" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G154" s="16"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="12"/>
+    </row>
+    <row r="155" spans="1:10" ht="27">
+      <c r="A155" s="13">
+        <v>24323530</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D155" s="17"/>
+      <c r="E155" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F155" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G155" s="16"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="12"/>
+    </row>
+    <row r="156" spans="1:10" ht="27">
+      <c r="A156" s="13">
+        <v>24323048</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D156" s="17"/>
+      <c r="E156" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F156" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G156" s="16"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="12"/>
+    </row>
+    <row r="157" spans="1:10" ht="27">
+      <c r="A157" s="13">
+        <v>24304236</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D157" s="17"/>
+      <c r="E157" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F157" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G157" s="16"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="12"/>
+    </row>
+    <row r="158" spans="1:10" ht="27">
+      <c r="A158" s="13">
+        <v>24304186</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D158" s="17"/>
+      <c r="E158" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F158" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G158" s="16"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="12"/>
+    </row>
+    <row r="159" spans="1:10" ht="40">
+      <c r="A159" s="13">
+        <v>24301680</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D159" s="17"/>
+      <c r="E159" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G159" s="16"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="12"/>
+    </row>
+    <row r="160" spans="1:10" ht="14">
+      <c r="A160" s="13">
+        <v>24300789</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D160" s="17"/>
+      <c r="E160" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F160" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G160" s="16"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="12"/>
+    </row>
+    <row r="161" spans="1:10" ht="27">
+      <c r="A161" s="13">
+        <v>24300048</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D161" s="17"/>
+      <c r="E161" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G161" s="16"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="12"/>
+    </row>
+    <row r="162" spans="1:10" ht="40">
+      <c r="A162" s="13">
+        <v>24298020</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D162" s="17"/>
+      <c r="E162" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F162" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G162" s="16"/>
+      <c r="H162" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="I162" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J162" s="12"/>
+    </row>
+    <row r="163" spans="1:10" ht="27">
+      <c r="A163" s="13">
+        <v>24296361</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D163" s="17"/>
+      <c r="E163" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F163" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G163" s="16"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="12"/>
+    </row>
+    <row r="164" spans="1:10" ht="27">
+      <c r="A164" s="13">
+        <v>24291262</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D164" s="17"/>
+      <c r="E164" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F164" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G164" s="16"/>
+      <c r="H164" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="I164" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J164" s="12"/>
+    </row>
+    <row r="165" spans="1:10" ht="27">
+      <c r="A165" s="13">
+        <v>24291210</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D165" s="17"/>
+      <c r="E165" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F165" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G165" s="16"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="12"/>
+    </row>
+    <row r="166" spans="1:10" ht="40">
+      <c r="A166" s="13">
+        <v>24282028</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D166" s="17"/>
+      <c r="E166" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F166" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G166" s="16"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="12"/>
+    </row>
+    <row r="167" spans="1:10" ht="27">
+      <c r="A167" s="13">
+        <v>24269914</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D167" s="17"/>
+      <c r="E167" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G167" s="16"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="12"/>
+    </row>
+    <row r="168" spans="1:10" ht="40">
+      <c r="A168" s="13">
+        <v>24269729</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D168" s="17"/>
+      <c r="E168" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F168" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G168" s="16"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="12"/>
+    </row>
+    <row r="169" spans="1:10" ht="14">
+      <c r="A169" s="13">
+        <v>24269666</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D169" s="17"/>
+      <c r="E169" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F169" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G169" s="16"/>
+      <c r="H169" s="14"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="12"/>
+    </row>
+    <row r="170" spans="1:10" ht="27">
+      <c r="A170" s="13">
+        <v>24266585</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D170" s="17"/>
+      <c r="E170" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F170" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G170" s="16"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="13"/>
+      <c r="J170" s="12"/>
+    </row>
+    <row r="171" spans="1:10" ht="27">
+      <c r="A171" s="13">
+        <v>24234436</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D171" s="17"/>
+      <c r="E171" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F171" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G171" s="16"/>
+      <c r="H171" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="I171" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J171" s="12"/>
+    </row>
+    <row r="172" spans="1:10" ht="14">
+      <c r="A172" s="13">
+        <v>24221215</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D172" s="17"/>
+      <c r="E172" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F172" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G172" s="16"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="13"/>
+      <c r="J172" s="12"/>
+    </row>
+    <row r="173" spans="1:10" ht="27">
+      <c r="A173" s="13">
+        <v>24214466</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D173" s="17"/>
+      <c r="E173" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F173" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G173" s="16"/>
+      <c r="H173" s="14"/>
+      <c r="I173" s="13"/>
+      <c r="J173" s="12"/>
+    </row>
+    <row r="174" spans="1:10" ht="40">
+      <c r="A174" s="13">
+        <v>24198227</v>
+      </c>
+      <c r="B174" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D174" s="17"/>
+      <c r="E174" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F174" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G174" s="16"/>
+      <c r="H174" s="14"/>
+      <c r="I174" s="13"/>
+      <c r="J174" s="12"/>
+    </row>
+    <row r="175" spans="1:10" ht="27">
+      <c r="A175" s="13">
+        <v>24196395</v>
+      </c>
+      <c r="B175" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D175" s="17"/>
+      <c r="E175" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F175" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G175" s="16"/>
+      <c r="H175" s="14"/>
+      <c r="I175" s="13"/>
+      <c r="J175" s="12"/>
+    </row>
+    <row r="176" spans="1:10" ht="40">
+      <c r="A176" s="13">
+        <v>24191263</v>
+      </c>
+      <c r="B176" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D176" s="17"/>
+      <c r="E176" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F176" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G176" s="16"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="12"/>
+    </row>
+    <row r="177" spans="1:10" ht="53">
+      <c r="A177" s="13">
+        <v>24188794</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D177" s="17"/>
+      <c r="E177" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F177" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G177" s="16"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="12"/>
+    </row>
+    <row r="178" spans="1:10" ht="14">
+      <c r="A178" s="13">
+        <v>24184605</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D178" s="17"/>
+      <c r="E178" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F178" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G178" s="16"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="12"/>
+    </row>
+    <row r="179" spans="1:10" ht="14">
+      <c r="A179" s="13">
+        <v>24184315</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D179" s="17"/>
+      <c r="E179" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F179" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G179" s="16"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="12"/>
+    </row>
+    <row r="180" spans="1:10" ht="40">
+      <c r="A180" s="13">
+        <v>24182734</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D180" s="17"/>
+      <c r="E180" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F180" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G180" s="16"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="12"/>
+    </row>
+    <row r="181" spans="1:10" ht="40">
+      <c r="A181" s="13">
+        <v>24164802</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D181" s="17"/>
+      <c r="E181" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F181" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G181" s="16"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="12"/>
+    </row>
+    <row r="182" spans="1:10" ht="27">
+      <c r="A182" s="13">
+        <v>24151181</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D182" s="17"/>
+      <c r="E182" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F182" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G182" s="16"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="13"/>
+      <c r="J182" s="12"/>
+    </row>
+    <row r="183" spans="1:10" ht="27">
+      <c r="A183" s="13">
+        <v>24150908</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D183" s="17"/>
+      <c r="E183" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F183" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G183" s="16"/>
+      <c r="H183" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I183" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J183" s="12"/>
+    </row>
+    <row r="184" spans="1:10" ht="26">
+      <c r="A184" s="13">
+        <v>24135486</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D184" s="17"/>
+      <c r="E184" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F184" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184" s="16"/>
+      <c r="H184" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="I184" s="13"/>
+      <c r="J184" s="12"/>
+    </row>
+    <row r="185" spans="1:10" ht="40">
+      <c r="A185" s="13">
+        <v>24135007</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D185" s="17"/>
+      <c r="E185" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F185" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G185" s="16"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="13"/>
+      <c r="J185" s="12"/>
+    </row>
+    <row r="186" spans="1:10" ht="27">
+      <c r="A186" s="13">
+        <v>24121255</v>
+      </c>
+      <c r="B186" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D186" s="17"/>
+      <c r="E186" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F186" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G186" s="16"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="13"/>
+      <c r="J186" s="12"/>
+    </row>
+    <row r="187" spans="1:10" ht="14">
+      <c r="A187" s="13">
+        <v>24105466</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D187" s="17"/>
+      <c r="E187" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F187" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G187" s="16"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="13"/>
+      <c r="J187" s="12"/>
+    </row>
+    <row r="188" spans="1:10" ht="27">
+      <c r="A188" s="13">
+        <v>24070869</v>
+      </c>
+      <c r="B188" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D188" s="17"/>
+      <c r="E188" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F188" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G188" s="16"/>
+      <c r="H188" s="14"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="12"/>
+    </row>
+    <row r="189" spans="1:10" ht="27">
+      <c r="A189" s="13">
+        <v>24070868</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D189" s="17"/>
+      <c r="E189" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F189" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G189" s="16"/>
+      <c r="H189" s="14"/>
+      <c r="I189" s="13"/>
+      <c r="J189" s="12"/>
+    </row>
+    <row r="190" spans="1:10" ht="14">
+      <c r="A190" s="13">
+        <v>24064111</v>
+      </c>
+      <c r="B190" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D190" s="17"/>
+      <c r="E190" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F190" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G190" s="16"/>
+      <c r="H190" s="14"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="12"/>
+    </row>
+    <row r="191" spans="1:10" ht="27">
+      <c r="A191" s="13">
+        <v>24027120</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D191" s="17"/>
+      <c r="E191" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F191" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G191" s="16"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="13"/>
+      <c r="J191" s="12"/>
+    </row>
+    <row r="192" spans="1:10" ht="27">
+      <c r="A192" s="13">
+        <v>24021477</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D192" s="17"/>
+      <c r="E192" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F192" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G192" s="16"/>
+      <c r="H192" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I192" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J192" s="12"/>
+    </row>
+    <row r="193" spans="1:10" ht="40">
+      <c r="A193" s="13">
+        <v>24008671</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D193" s="17"/>
+      <c r="E193" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F193" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G193" s="16"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="12"/>
+    </row>
+    <row r="194" spans="1:10" ht="14">
+      <c r="A194" s="13">
+        <v>23982979</v>
+      </c>
+      <c r="B194" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D194" s="17"/>
+      <c r="E194" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F194" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G194" s="16"/>
+      <c r="H194" s="14"/>
+      <c r="I194" s="13"/>
+      <c r="J194" s="12"/>
+    </row>
+    <row r="195" spans="1:10" ht="40">
+      <c r="A195" s="13">
+        <v>23948924</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D195" s="17"/>
+      <c r="E195" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F195" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G195" s="16"/>
+      <c r="H195" s="14"/>
+      <c r="I195" s="13"/>
+      <c r="J195" s="12"/>
+    </row>
+    <row r="196" spans="1:10" ht="40">
+      <c r="A196" s="13">
+        <v>23948661</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D196" s="17"/>
+      <c r="E196" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F196" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G196" s="16"/>
+      <c r="H196" s="14"/>
+      <c r="I196" s="13"/>
+      <c r="J196" s="12"/>
+    </row>
+    <row r="197" spans="1:10" ht="40">
+      <c r="A197" s="13">
+        <v>23939879</v>
+      </c>
+      <c r="B197" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D197" s="17"/>
+      <c r="E197" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F197" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G197" s="16"/>
+      <c r="H197" s="14"/>
+      <c r="I197" s="13"/>
+      <c r="J197" s="12"/>
+    </row>
+    <row r="198" spans="1:10" ht="40">
+      <c r="A198" s="13">
+        <v>23913754</v>
+      </c>
+      <c r="B198" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D198" s="17"/>
+      <c r="E198" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F198" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G198" s="16"/>
+      <c r="H198" s="14"/>
+      <c r="I198" s="13"/>
+      <c r="J198" s="12"/>
+    </row>
+    <row r="199" spans="1:10" ht="27">
+      <c r="A199" s="13">
+        <v>23896721</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D199" s="17"/>
+      <c r="E199" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F199" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G199" s="16"/>
+      <c r="H199" s="14"/>
+      <c r="I199" s="13"/>
+      <c r="J199" s="12"/>
+    </row>
+    <row r="200" spans="1:10" ht="27">
+      <c r="A200" s="13">
+        <v>23889603</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D200" s="17"/>
+      <c r="E200" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F200" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G200" s="16"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="13"/>
+      <c r="J200" s="12"/>
+    </row>
+    <row r="201" spans="1:10" ht="27">
+      <c r="A201" s="13">
+        <v>23880505</v>
+      </c>
+      <c r="B201" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D201" s="17"/>
+      <c r="E201" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F201" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G201" s="16"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="13"/>
+      <c r="J201" s="12"/>
+    </row>
+    <row r="202" spans="1:10" ht="40">
+      <c r="A202" s="13">
+        <v>23860040</v>
+      </c>
+      <c r="B202" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D202" s="17"/>
+      <c r="E202" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F202" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G202" s="16"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="13"/>
+      <c r="J202" s="12"/>
+    </row>
+    <row r="203" spans="1:10" ht="27">
+      <c r="A203" s="13">
+        <v>23859590</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D203" s="17"/>
+      <c r="E203" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F203" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G203" s="16"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="13"/>
+      <c r="J203" s="12"/>
+    </row>
+    <row r="204" spans="1:10" ht="27">
+      <c r="A204" s="13">
+        <v>23847161</v>
+      </c>
+      <c r="B204" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D204" s="17"/>
+      <c r="E204" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F204" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G204" s="16"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="13"/>
+      <c r="J204" s="12"/>
+    </row>
+    <row r="205" spans="1:10" ht="27">
+      <c r="A205" s="13">
+        <v>23767964</v>
+      </c>
+      <c r="B205" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D205" s="17"/>
+      <c r="E205" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F205" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G205" s="16"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="13"/>
+      <c r="J205" s="12"/>
+    </row>
+    <row r="206" spans="1:10" ht="27">
+      <c r="A206" s="13">
+        <v>23568433</v>
+      </c>
+      <c r="B206" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D206" s="17"/>
+      <c r="E206" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F206" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G206" s="16"/>
+      <c r="H206" s="14"/>
+      <c r="I206" s="13"/>
+      <c r="J206" s="12"/>
+    </row>
+    <row r="207" spans="1:10" ht="40">
+      <c r="A207" s="13">
+        <v>23531734</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D207" s="17"/>
+      <c r="E207" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F207" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G207" s="16"/>
+      <c r="H207" s="14"/>
+      <c r="I207" s="13"/>
+      <c r="J207" s="12"/>
+    </row>
+    <row r="208" spans="1:10" ht="27">
+      <c r="A208" s="13">
+        <v>23482620</v>
+      </c>
+      <c r="B208" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D208" s="17"/>
+      <c r="E208" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F208" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G208" s="16"/>
+      <c r="H208" s="14"/>
+      <c r="I208" s="13"/>
+      <c r="J208" s="12"/>
+    </row>
+    <row r="209" spans="1:10" ht="27">
+      <c r="A209" s="13">
+        <v>23350614</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D209" s="17"/>
+      <c r="E209" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G209" s="16"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="13"/>
+      <c r="J209" s="12"/>
+    </row>
+    <row r="210" spans="1:10" ht="40">
+      <c r="A210" s="13">
+        <v>23350580</v>
+      </c>
+      <c r="B210" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D210" s="17"/>
+      <c r="E210" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F210" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G210" s="16"/>
+      <c r="H210" s="14"/>
+      <c r="I210" s="13"/>
+      <c r="J210" s="12"/>
+    </row>
+    <row r="211" spans="1:10" ht="27">
+      <c r="A211" s="13">
+        <v>23320517</v>
+      </c>
+      <c r="B211" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D211" s="17"/>
+      <c r="E211" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F211" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G211" s="16"/>
+      <c r="H211" s="14"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="12"/>
+    </row>
+    <row r="212" spans="1:10" ht="27">
+      <c r="A212" s="13">
+        <v>23282072</v>
+      </c>
+      <c r="B212" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D212" s="17"/>
+      <c r="E212" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F212" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G212" s="16"/>
+      <c r="H212" s="14"/>
+      <c r="I212" s="13"/>
+      <c r="J212" s="12"/>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="13"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="13"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="14"/>
+      <c r="I213" s="13"/>
+      <c r="J213" s="12"/>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="13"/>
+      <c r="B214" s="15"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="14"/>
+      <c r="I214" s="13"/>
+      <c r="J214" s="12"/>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="B215" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J212"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
+    <hyperlink ref="B69" r:id="rId68"/>
+    <hyperlink ref="B70" r:id="rId69"/>
+    <hyperlink ref="B71" r:id="rId70"/>
+    <hyperlink ref="B72" r:id="rId71"/>
+    <hyperlink ref="B73" r:id="rId72"/>
+    <hyperlink ref="B74" r:id="rId73"/>
+    <hyperlink ref="B75" r:id="rId74"/>
+    <hyperlink ref="B76" r:id="rId75"/>
+    <hyperlink ref="B77" r:id="rId76"/>
+    <hyperlink ref="B78" r:id="rId77"/>
+    <hyperlink ref="B79" r:id="rId78"/>
+    <hyperlink ref="B80" r:id="rId79"/>
+    <hyperlink ref="B81" r:id="rId80"/>
+    <hyperlink ref="B82" r:id="rId81"/>
+    <hyperlink ref="B83" r:id="rId82"/>
+    <hyperlink ref="B84" r:id="rId83"/>
+    <hyperlink ref="B85" r:id="rId84"/>
+    <hyperlink ref="B86" r:id="rId85"/>
+    <hyperlink ref="B87" r:id="rId86"/>
+    <hyperlink ref="B88" r:id="rId87"/>
+    <hyperlink ref="B89" r:id="rId88"/>
+    <hyperlink ref="B90" r:id="rId89"/>
+    <hyperlink ref="B91" r:id="rId90"/>
+    <hyperlink ref="B93" r:id="rId91"/>
+    <hyperlink ref="B94" r:id="rId92"/>
+    <hyperlink ref="B95" r:id="rId93"/>
+    <hyperlink ref="B96" r:id="rId94"/>
+    <hyperlink ref="B97" r:id="rId95"/>
+    <hyperlink ref="B98" r:id="rId96"/>
+    <hyperlink ref="B99" r:id="rId97"/>
+    <hyperlink ref="B100" r:id="rId98"/>
+    <hyperlink ref="B101" r:id="rId99"/>
+    <hyperlink ref="B102" r:id="rId100"/>
+    <hyperlink ref="B103" r:id="rId101"/>
+    <hyperlink ref="B104" r:id="rId102"/>
+    <hyperlink ref="B105" r:id="rId103"/>
+    <hyperlink ref="B106" r:id="rId104"/>
+    <hyperlink ref="B107" r:id="rId105"/>
+    <hyperlink ref="B108" r:id="rId106"/>
+    <hyperlink ref="B109" r:id="rId107"/>
+    <hyperlink ref="B110" r:id="rId108"/>
+    <hyperlink ref="B111" r:id="rId109"/>
+    <hyperlink ref="B112" r:id="rId110"/>
+    <hyperlink ref="B113" r:id="rId111"/>
+    <hyperlink ref="B114" r:id="rId112"/>
+    <hyperlink ref="B115" r:id="rId113"/>
+    <hyperlink ref="B116" r:id="rId114"/>
+    <hyperlink ref="B117" r:id="rId115"/>
+    <hyperlink ref="B118" r:id="rId116"/>
+    <hyperlink ref="B119" r:id="rId117"/>
+    <hyperlink ref="B120" r:id="rId118"/>
+    <hyperlink ref="B121" r:id="rId119"/>
+    <hyperlink ref="B122" r:id="rId120"/>
+    <hyperlink ref="B123" r:id="rId121"/>
+    <hyperlink ref="B124" r:id="rId122"/>
+    <hyperlink ref="B125" r:id="rId123"/>
+    <hyperlink ref="B126" r:id="rId124"/>
+    <hyperlink ref="B127" r:id="rId125"/>
+    <hyperlink ref="B128" r:id="rId126"/>
+    <hyperlink ref="B129" r:id="rId127"/>
+    <hyperlink ref="B130" r:id="rId128"/>
+    <hyperlink ref="B131" r:id="rId129"/>
+    <hyperlink ref="B132" r:id="rId130"/>
+    <hyperlink ref="B133" r:id="rId131"/>
+    <hyperlink ref="B134" r:id="rId132"/>
+    <hyperlink ref="B135" r:id="rId133"/>
+    <hyperlink ref="B136" r:id="rId134"/>
+    <hyperlink ref="B137" r:id="rId135"/>
+    <hyperlink ref="B138" r:id="rId136"/>
+    <hyperlink ref="B139" r:id="rId137"/>
+    <hyperlink ref="B140" r:id="rId138"/>
+    <hyperlink ref="B141" r:id="rId139"/>
+    <hyperlink ref="B142" r:id="rId140"/>
+    <hyperlink ref="B143" r:id="rId141"/>
+    <hyperlink ref="B144" r:id="rId142"/>
+    <hyperlink ref="B145" r:id="rId143"/>
+    <hyperlink ref="B146" r:id="rId144"/>
+    <hyperlink ref="B147" r:id="rId145"/>
+    <hyperlink ref="B148" r:id="rId146"/>
+    <hyperlink ref="B149" r:id="rId147"/>
+    <hyperlink ref="B150" r:id="rId148"/>
+    <hyperlink ref="B151" r:id="rId149"/>
+    <hyperlink ref="B152" r:id="rId150"/>
+    <hyperlink ref="B153" r:id="rId151"/>
+    <hyperlink ref="B154" r:id="rId152"/>
+    <hyperlink ref="B155" r:id="rId153"/>
+    <hyperlink ref="B156" r:id="rId154"/>
+    <hyperlink ref="B157" r:id="rId155"/>
+    <hyperlink ref="B160" r:id="rId156"/>
+    <hyperlink ref="B161" r:id="rId157"/>
+    <hyperlink ref="B162" r:id="rId158"/>
+    <hyperlink ref="B163" r:id="rId159"/>
+    <hyperlink ref="B164" r:id="rId160"/>
+    <hyperlink ref="B165" r:id="rId161"/>
+    <hyperlink ref="B166" r:id="rId162"/>
+    <hyperlink ref="B167" r:id="rId163"/>
+    <hyperlink ref="B168" r:id="rId164"/>
+    <hyperlink ref="B169" r:id="rId165"/>
+    <hyperlink ref="B170" r:id="rId166"/>
+    <hyperlink ref="B171" r:id="rId167"/>
+    <hyperlink ref="B172" r:id="rId168"/>
+    <hyperlink ref="B173" r:id="rId169"/>
+    <hyperlink ref="B174" r:id="rId170"/>
+    <hyperlink ref="B175" r:id="rId171"/>
+    <hyperlink ref="B176" r:id="rId172"/>
+    <hyperlink ref="B177" r:id="rId173"/>
+    <hyperlink ref="B178" r:id="rId174"/>
+    <hyperlink ref="B179" r:id="rId175"/>
+    <hyperlink ref="B180" r:id="rId176"/>
+    <hyperlink ref="B181" r:id="rId177"/>
+    <hyperlink ref="B182" r:id="rId178"/>
+    <hyperlink ref="B183" r:id="rId179"/>
+    <hyperlink ref="B184" r:id="rId180"/>
+    <hyperlink ref="B185" r:id="rId181"/>
+    <hyperlink ref="B186" r:id="rId182"/>
+    <hyperlink ref="B187" r:id="rId183"/>
+    <hyperlink ref="B188" r:id="rId184"/>
+    <hyperlink ref="B189" r:id="rId185"/>
+    <hyperlink ref="B190" r:id="rId186"/>
+    <hyperlink ref="B191" r:id="rId187"/>
+    <hyperlink ref="B192" r:id="rId188"/>
+    <hyperlink ref="B193" r:id="rId189"/>
+    <hyperlink ref="B194" r:id="rId190"/>
+    <hyperlink ref="B195" r:id="rId191"/>
+    <hyperlink ref="B196" r:id="rId192"/>
+    <hyperlink ref="B197" r:id="rId193"/>
+    <hyperlink ref="B198" r:id="rId194"/>
+    <hyperlink ref="B199" r:id="rId195"/>
+    <hyperlink ref="B200" r:id="rId196"/>
+    <hyperlink ref="B201" r:id="rId197"/>
+    <hyperlink ref="B202" r:id="rId198"/>
+    <hyperlink ref="B203" r:id="rId199"/>
+    <hyperlink ref="B204" r:id="rId200"/>
+    <hyperlink ref="B206" r:id="rId201"/>
+    <hyperlink ref="B207" r:id="rId202"/>
+    <hyperlink ref="B208" r:id="rId203"/>
+    <hyperlink ref="B209" r:id="rId204"/>
+    <hyperlink ref="B210" r:id="rId205"/>
+    <hyperlink ref="B211" r:id="rId206"/>
+    <hyperlink ref="B212" r:id="rId207"/>
+    <hyperlink ref="H4" r:id="rId208"/>
+    <hyperlink ref="I4" r:id="rId209"/>
+    <hyperlink ref="H8" r:id="rId210"/>
+    <hyperlink ref="I8" r:id="rId211"/>
+    <hyperlink ref="H10" r:id="rId212"/>
+    <hyperlink ref="I10" r:id="rId213"/>
+    <hyperlink ref="H25" r:id="rId214"/>
+    <hyperlink ref="I25" r:id="rId215"/>
+    <hyperlink ref="H40" r:id="rId216"/>
+    <hyperlink ref="I40" r:id="rId217"/>
+    <hyperlink ref="H46" r:id="rId218"/>
+    <hyperlink ref="I46" r:id="rId219"/>
+    <hyperlink ref="H48" r:id="rId220"/>
+    <hyperlink ref="I48" r:id="rId221"/>
+    <hyperlink ref="H49" r:id="rId222"/>
+    <hyperlink ref="I49" r:id="rId223"/>
+    <hyperlink ref="H55" r:id="rId224"/>
+    <hyperlink ref="I55" r:id="rId225"/>
+    <hyperlink ref="I60" r:id="rId226"/>
+    <hyperlink ref="H69" r:id="rId227"/>
+    <hyperlink ref="H60" r:id="rId228"/>
+    <hyperlink ref="I69" r:id="rId229"/>
+    <hyperlink ref="H84" r:id="rId230"/>
+    <hyperlink ref="I84" r:id="rId231"/>
+    <hyperlink ref="H85" r:id="rId232"/>
+    <hyperlink ref="I85" r:id="rId233"/>
+    <hyperlink ref="H86" r:id="rId234"/>
+    <hyperlink ref="I86" r:id="rId235"/>
+    <hyperlink ref="H88" r:id="rId236"/>
+    <hyperlink ref="I88" r:id="rId237"/>
+    <hyperlink ref="B92" r:id="rId238"/>
+    <hyperlink ref="H92" r:id="rId239"/>
+    <hyperlink ref="I92" r:id="rId240"/>
+    <hyperlink ref="H101" r:id="rId241"/>
+    <hyperlink ref="I101" r:id="rId242"/>
+    <hyperlink ref="H107" r:id="rId243"/>
+    <hyperlink ref="I107" r:id="rId244"/>
+    <hyperlink ref="H108" r:id="rId245"/>
+    <hyperlink ref="I108" r:id="rId246"/>
+    <hyperlink ref="H113" r:id="rId247"/>
+    <hyperlink ref="I113" r:id="rId248"/>
+    <hyperlink ref="I117" r:id="rId249"/>
+    <hyperlink ref="H118" r:id="rId250"/>
+    <hyperlink ref="I118" r:id="rId251"/>
+    <hyperlink ref="H119" r:id="rId252"/>
+    <hyperlink ref="I119" r:id="rId253"/>
+    <hyperlink ref="H120" r:id="rId254"/>
+    <hyperlink ref="I120" r:id="rId255"/>
+    <hyperlink ref="H137" r:id="rId256"/>
+    <hyperlink ref="I137" r:id="rId257"/>
+    <hyperlink ref="H143" r:id="rId258"/>
+    <hyperlink ref="I143" r:id="rId259"/>
+    <hyperlink ref="H145" r:id="rId260"/>
+    <hyperlink ref="I145" r:id="rId261"/>
+    <hyperlink ref="H149" r:id="rId262"/>
+    <hyperlink ref="I149" r:id="rId263"/>
+    <hyperlink ref="H151" r:id="rId264"/>
+    <hyperlink ref="I151" r:id="rId265"/>
+    <hyperlink ref="H153" r:id="rId266"/>
+    <hyperlink ref="I153" r:id="rId267"/>
+    <hyperlink ref="I162" r:id="rId268"/>
+    <hyperlink ref="H164" r:id="rId269"/>
+    <hyperlink ref="I164" r:id="rId270"/>
+    <hyperlink ref="H171" r:id="rId271"/>
+    <hyperlink ref="I171" r:id="rId272"/>
+    <hyperlink ref="H183" r:id="rId273"/>
+    <hyperlink ref="I183" r:id="rId274"/>
+    <hyperlink ref="H184" r:id="rId275"/>
+    <hyperlink ref="H192" r:id="rId276"/>
+    <hyperlink ref="I192" r:id="rId277"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
